--- a/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D44043C9-6680-493C-BB4C-A2C63C313058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AB29564-7B67-4659-91A5-8F9733E32A3D}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{D44043C9-6680-493C-BB4C-A2C63C313058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43C62B17-D770-43DF-AAB4-753E94DF2BE3}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="228">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -659,6 +659,51 @@
   </si>
   <si>
     <t>&lt;strike&gt;:pl: Polen&lt;/strike&gt;</t>
+  </si>
+  <si>
+    <t>AF1</t>
+  </si>
+  <si>
+    <t>AF2</t>
+  </si>
+  <si>
+    <t>AF3</t>
+  </si>
+  <si>
+    <t>AF4</t>
+  </si>
+  <si>
+    <t>AF5</t>
+  </si>
+  <si>
+    <t>AF6</t>
+  </si>
+  <si>
+    <t>AF7</t>
+  </si>
+  <si>
+    <t>AF8</t>
+  </si>
+  <si>
+    <t>VF1</t>
+  </si>
+  <si>
+    <t>VF2</t>
+  </si>
+  <si>
+    <t>VF3</t>
+  </si>
+  <si>
+    <t>VF4</t>
+  </si>
+  <si>
+    <t>HF1</t>
+  </si>
+  <si>
+    <t>HF2</t>
+  </si>
+  <si>
+    <t>Finale</t>
   </si>
 </sst>
 </file>
@@ -942,20 +987,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AQ49"/>
+  <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BB15" sqref="BB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="29.109375" customWidth="1"/>
-    <col min="5" max="49" width="21.5546875" customWidth="1"/>
+    <col min="5" max="64" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,16 +1122,61 @@
         <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -1198,10 +1288,25 @@
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="9"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="9"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44357.404179537036</v>
       </c>
@@ -1322,15 +1427,30 @@
       <c r="AN3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="BE3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AQ3" s="5"/>
+      <c r="BF3" s="5"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44358.796914710649</v>
       </c>
@@ -1451,14 +1571,29 @@
       <c r="AN4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="BE4" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44353.726277939815</v>
       </c>
@@ -1579,14 +1714,29 @@
       <c r="AN5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP5" s="3" t="s">
+      <c r="BE5" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44353.7207208912</v>
       </c>
@@ -1707,14 +1857,29 @@
       <c r="AN6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP6" s="3" t="s">
+      <c r="BE6" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44351.583451909726</v>
       </c>
@@ -1835,14 +2000,29 @@
       <c r="AN7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AO7" s="1" t="s">
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AP7" s="3" t="s">
+      <c r="BE7" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44355.651320682868</v>
       </c>
@@ -1963,14 +2143,29 @@
       <c r="AN8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AP8" s="3" t="s">
+      <c r="BE8" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44358.337405185186</v>
       </c>
@@ -2091,14 +2286,29 @@
       <c r="AN9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="5"/>
+      <c r="BD9" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP9" s="3" t="s">
+      <c r="BE9" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44351.750726666665</v>
       </c>
@@ -2219,14 +2429,29 @@
       <c r="AN10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO10" s="1" t="s">
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP10" s="3" t="s">
+      <c r="BE10" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44351.650900092594</v>
       </c>
@@ -2344,14 +2569,29 @@
       <c r="AN11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO11" s="1" t="s">
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AP11" s="3" t="s">
+      <c r="BE11" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44357.763658819444</v>
       </c>
@@ -2472,14 +2712,29 @@
       <c r="AN12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO12" s="1" t="s">
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AP12" s="3" t="s">
+      <c r="BE12" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44354.645761412037</v>
       </c>
@@ -2600,14 +2855,29 @@
       <c r="AN13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AO13" s="1" t="s">
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP13" s="3" t="s">
+      <c r="BE13" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>44351.521401122685</v>
       </c>
@@ -2728,14 +2998,29 @@
       <c r="AN14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AO14" s="1" t="s">
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AP14" s="3" t="s">
+      <c r="BE14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44351.428450497682</v>
       </c>
@@ -2856,14 +3141,29 @@
       <c r="AN15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AO15" s="1" t="s">
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP15" s="3" t="s">
+      <c r="BE15" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>44358.513099976852</v>
       </c>
@@ -2984,14 +3284,29 @@
       <c r="AN16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO16" s="1" t="s">
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="5"/>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AP16" s="3" t="s">
+      <c r="BE16" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44349.570228993056</v>
       </c>
@@ -3112,14 +3427,29 @@
       <c r="AN17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AO17" s="1" t="s">
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="5"/>
+      <c r="AZ17" s="5"/>
+      <c r="BA17" s="5"/>
+      <c r="BB17" s="5"/>
+      <c r="BC17" s="5"/>
+      <c r="BD17" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AP17" s="3" t="s">
+      <c r="BE17" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44346.828506678241</v>
       </c>
@@ -3240,14 +3570,29 @@
       <c r="AN18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO18" s="1" t="s">
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="5"/>
+      <c r="BB18" s="5"/>
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP18" s="3" t="s">
+      <c r="BE18" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>44358.45704332176</v>
       </c>
@@ -3368,14 +3713,29 @@
       <c r="AN19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO19" s="1" t="s">
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="5"/>
+      <c r="BA19" s="5"/>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="5"/>
+      <c r="BD19" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AP19" s="3" t="s">
+      <c r="BE19" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44347.610221863426</v>
       </c>
@@ -3493,14 +3853,29 @@
       <c r="AN20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO20" s="1" t="s">
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="5"/>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="5"/>
+      <c r="BD20" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AP20" s="3" t="s">
+      <c r="BE20" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>44355.617516967592</v>
       </c>
@@ -3621,14 +3996,29 @@
       <c r="AN21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO21" s="1" t="s">
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="5"/>
+      <c r="AX21" s="5"/>
+      <c r="AY21" s="5"/>
+      <c r="AZ21" s="5"/>
+      <c r="BA21" s="5"/>
+      <c r="BB21" s="5"/>
+      <c r="BC21" s="5"/>
+      <c r="BD21" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP21" s="3" t="s">
+      <c r="BE21" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>44354.614342407411</v>
       </c>
@@ -3746,14 +4136,29 @@
       <c r="AN22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO22" s="1" t="s">
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
+      <c r="AZ22" s="5"/>
+      <c r="BA22" s="5"/>
+      <c r="BB22" s="5"/>
+      <c r="BC22" s="5"/>
+      <c r="BD22" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP22" s="3" t="s">
+      <c r="BE22" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>44352.420063831014</v>
       </c>
@@ -3871,14 +4276,29 @@
       <c r="AN23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO23" s="1" t="s">
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AP23" s="3" t="s">
+      <c r="BE23" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>44343.651783159723</v>
       </c>
@@ -3999,14 +4419,29 @@
       <c r="AN24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AO24" s="1" t="s">
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP24" s="3" t="s">
+      <c r="BE24" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>44347.660611446758</v>
       </c>
@@ -4127,14 +4562,29 @@
       <c r="AN25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO25" s="1" t="s">
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="5"/>
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="5"/>
+      <c r="AX25" s="5"/>
+      <c r="AY25" s="5"/>
+      <c r="AZ25" s="5"/>
+      <c r="BA25" s="5"/>
+      <c r="BB25" s="5"/>
+      <c r="BC25" s="5"/>
+      <c r="BD25" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AP25" s="3" t="s">
+      <c r="BE25" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>44355.483471168976</v>
       </c>
@@ -4255,14 +4705,29 @@
       <c r="AN26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AO26" s="1" t="s">
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="5"/>
+      <c r="AU26" s="5"/>
+      <c r="AV26" s="5"/>
+      <c r="AW26" s="5"/>
+      <c r="AX26" s="5"/>
+      <c r="AY26" s="5"/>
+      <c r="AZ26" s="5"/>
+      <c r="BA26" s="5"/>
+      <c r="BB26" s="5"/>
+      <c r="BC26" s="5"/>
+      <c r="BD26" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AP26" s="3" t="s">
+      <c r="BE26" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>44351.59185138889</v>
       </c>
@@ -4383,14 +4848,29 @@
       <c r="AN27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO27" s="1" t="s">
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="5"/>
+      <c r="AW27" s="5"/>
+      <c r="AX27" s="5"/>
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="5"/>
+      <c r="BA27" s="5"/>
+      <c r="BB27" s="5"/>
+      <c r="BC27" s="5"/>
+      <c r="BD27" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP27" s="3" t="s">
+      <c r="BE27" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>44342.911392962968</v>
       </c>
@@ -4511,14 +4991,29 @@
       <c r="AN28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO28" s="1" t="s">
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP28" s="3" t="s">
+      <c r="BE28" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>44357.937155127314</v>
       </c>
@@ -4639,14 +5134,29 @@
       <c r="AN29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AO29" s="1" t="s">
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AP29" s="3" t="s">
+      <c r="BE29" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>44357.463211458336</v>
       </c>
@@ -4767,14 +5277,29 @@
       <c r="AN30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO30" s="1" t="s">
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="5"/>
+      <c r="AS30" s="5"/>
+      <c r="AT30" s="5"/>
+      <c r="AU30" s="5"/>
+      <c r="AV30" s="5"/>
+      <c r="AW30" s="5"/>
+      <c r="AX30" s="5"/>
+      <c r="AY30" s="5"/>
+      <c r="AZ30" s="5"/>
+      <c r="BA30" s="5"/>
+      <c r="BB30" s="5"/>
+      <c r="BC30" s="5"/>
+      <c r="BD30" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP30" s="3" t="s">
+      <c r="BE30" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>44344.580743287035</v>
       </c>
@@ -4895,14 +5420,29 @@
       <c r="AN31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="5"/>
+      <c r="AS31" s="5"/>
+      <c r="AT31" s="5"/>
+      <c r="AU31" s="5"/>
+      <c r="AV31" s="5"/>
+      <c r="AW31" s="5"/>
+      <c r="AX31" s="5"/>
+      <c r="AY31" s="5"/>
+      <c r="AZ31" s="5"/>
+      <c r="BA31" s="5"/>
+      <c r="BB31" s="5"/>
+      <c r="BC31" s="5"/>
+      <c r="BD31" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP31" s="3" t="s">
+      <c r="BE31" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>44340.455648518517</v>
       </c>
@@ -5020,14 +5560,29 @@
       <c r="AN32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO32" s="1" t="s">
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
+      <c r="AX32" s="5"/>
+      <c r="AY32" s="5"/>
+      <c r="AZ32" s="5"/>
+      <c r="BA32" s="5"/>
+      <c r="BB32" s="5"/>
+      <c r="BC32" s="5"/>
+      <c r="BD32" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP32" s="3" t="s">
+      <c r="BE32" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>44358.786595127312</v>
       </c>
@@ -5148,14 +5703,29 @@
       <c r="AN33" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="AO33" s="5" t="s">
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AP33" s="3" t="s">
+      <c r="BE33" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>44352.407088078704</v>
       </c>
@@ -5276,14 +5846,29 @@
       <c r="AN34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO34" s="1" t="s">
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AP34" s="3" t="s">
+      <c r="BE34" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>44351.537212974537</v>
       </c>
@@ -5401,14 +5986,29 @@
       <c r="AN35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AO35" s="1" t="s">
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="5"/>
+      <c r="AV35" s="5"/>
+      <c r="AW35" s="5"/>
+      <c r="AX35" s="5"/>
+      <c r="AY35" s="5"/>
+      <c r="AZ35" s="5"/>
+      <c r="BA35" s="5"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="5"/>
+      <c r="BD35" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AP35" s="3" t="s">
+      <c r="BE35" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>44357.517853460653</v>
       </c>
@@ -5526,14 +6126,29 @@
       <c r="AN36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AO36" s="1" t="s">
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="5"/>
+      <c r="AU36" s="5"/>
+      <c r="AV36" s="5"/>
+      <c r="AW36" s="5"/>
+      <c r="AX36" s="5"/>
+      <c r="AY36" s="5"/>
+      <c r="AZ36" s="5"/>
+      <c r="BA36" s="5"/>
+      <c r="BB36" s="5"/>
+      <c r="BC36" s="5"/>
+      <c r="BD36" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP36" s="3" t="s">
+      <c r="BE36" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>44357.755932395834</v>
       </c>
@@ -5654,14 +6269,29 @@
       <c r="AN37" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AO37" s="1" t="s">
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="5"/>
+      <c r="AR37" s="5"/>
+      <c r="AS37" s="5"/>
+      <c r="AT37" s="5"/>
+      <c r="AU37" s="5"/>
+      <c r="AV37" s="5"/>
+      <c r="AW37" s="5"/>
+      <c r="AX37" s="5"/>
+      <c r="AY37" s="5"/>
+      <c r="AZ37" s="5"/>
+      <c r="BA37" s="5"/>
+      <c r="BB37" s="5"/>
+      <c r="BC37" s="5"/>
+      <c r="BD37" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP37" s="3" t="s">
+      <c r="BE37" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>44343.428704918981</v>
       </c>
@@ -5782,14 +6412,29 @@
       <c r="AN38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO38" s="1" t="s">
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="5"/>
+      <c r="AT38" s="5"/>
+      <c r="AU38" s="5"/>
+      <c r="AV38" s="5"/>
+      <c r="AW38" s="5"/>
+      <c r="AX38" s="5"/>
+      <c r="AY38" s="5"/>
+      <c r="AZ38" s="5"/>
+      <c r="BA38" s="5"/>
+      <c r="BB38" s="5"/>
+      <c r="BC38" s="5"/>
+      <c r="BD38" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AP38" s="3" t="s">
+      <c r="BE38" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>44349.879789999999</v>
       </c>
@@ -5910,14 +6555,29 @@
       <c r="AN39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO39" s="1" t="s">
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="5"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="5"/>
+      <c r="AV39" s="5"/>
+      <c r="AW39" s="5"/>
+      <c r="AX39" s="5"/>
+      <c r="AY39" s="5"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="5"/>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AP39" s="3" t="s">
+      <c r="BE39" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>44358.541077800925</v>
       </c>
@@ -6038,14 +6698,29 @@
       <c r="AN40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO40" s="1" t="s">
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
+      <c r="BA40" s="5"/>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AP40" s="3" t="s">
+      <c r="BE40" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>44356.820878449071</v>
       </c>
@@ -6163,14 +6838,29 @@
       <c r="AN41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO41" s="1" t="s">
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
+      <c r="AS41" s="5"/>
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="5"/>
+      <c r="AV41" s="5"/>
+      <c r="AW41" s="5"/>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
+      <c r="BA41" s="5"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
+      <c r="BD41" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AP41" s="3" t="s">
+      <c r="BE41" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>44357.936677835649</v>
       </c>
@@ -6288,14 +6978,29 @@
       <c r="AN42" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO42" s="1" t="s">
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="5"/>
+      <c r="AS42" s="5"/>
+      <c r="AT42" s="5"/>
+      <c r="AU42" s="5"/>
+      <c r="AV42" s="5"/>
+      <c r="AW42" s="5"/>
+      <c r="AX42" s="5"/>
+      <c r="AY42" s="5"/>
+      <c r="AZ42" s="5"/>
+      <c r="BA42" s="5"/>
+      <c r="BB42" s="5"/>
+      <c r="BC42" s="5"/>
+      <c r="BD42" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AP42" s="3" t="s">
+      <c r="BE42" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>44345.692452442134</v>
       </c>
@@ -6413,14 +7118,29 @@
       <c r="AN43" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AO43" s="1" t="s">
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
+      <c r="AS43" s="5"/>
+      <c r="AT43" s="5"/>
+      <c r="AU43" s="5"/>
+      <c r="AV43" s="5"/>
+      <c r="AW43" s="5"/>
+      <c r="AX43" s="5"/>
+      <c r="AY43" s="5"/>
+      <c r="AZ43" s="5"/>
+      <c r="BA43" s="5"/>
+      <c r="BB43" s="5"/>
+      <c r="BC43" s="5"/>
+      <c r="BD43" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AP43" s="3" t="s">
+      <c r="BE43" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>44348.492419259259</v>
       </c>
@@ -6541,14 +7261,29 @@
       <c r="AN44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO44" s="1" t="s">
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP44" s="3" t="s">
+      <c r="BE44" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44315.684453900467</v>
       </c>
@@ -6669,14 +7404,29 @@
       <c r="AN45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AO45" s="1" t="s">
+      <c r="AO45" s="2"/>
+      <c r="AP45" s="2"/>
+      <c r="AQ45" s="2"/>
+      <c r="AR45" s="2"/>
+      <c r="AS45" s="2"/>
+      <c r="AT45" s="2"/>
+      <c r="AU45" s="2"/>
+      <c r="AV45" s="2"/>
+      <c r="AW45" s="2"/>
+      <c r="AX45" s="2"/>
+      <c r="AY45" s="2"/>
+      <c r="AZ45" s="2"/>
+      <c r="BA45" s="2"/>
+      <c r="BB45" s="2"/>
+      <c r="BC45" s="2"/>
+      <c r="BD45" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP45" s="3" t="s">
+      <c r="BE45" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44355.693081180551</v>
       </c>
@@ -6797,14 +7547,29 @@
       <c r="AN46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AO46" s="1" t="s">
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="5"/>
+      <c r="AS46" s="5"/>
+      <c r="AT46" s="5"/>
+      <c r="AU46" s="5"/>
+      <c r="AV46" s="5"/>
+      <c r="AW46" s="5"/>
+      <c r="AX46" s="5"/>
+      <c r="AY46" s="5"/>
+      <c r="AZ46" s="5"/>
+      <c r="BA46" s="5"/>
+      <c r="BB46" s="5"/>
+      <c r="BC46" s="5"/>
+      <c r="BD46" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AP46" s="3" t="s">
+      <c r="BE46" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>44338.962579375002</v>
       </c>
@@ -6922,14 +7687,29 @@
       <c r="AN47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AO47" s="1" t="s">
+      <c r="AO47" s="2"/>
+      <c r="AP47" s="2"/>
+      <c r="AQ47" s="2"/>
+      <c r="AR47" s="2"/>
+      <c r="AS47" s="2"/>
+      <c r="AT47" s="2"/>
+      <c r="AU47" s="2"/>
+      <c r="AV47" s="2"/>
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="2"/>
+      <c r="AY47" s="2"/>
+      <c r="AZ47" s="2"/>
+      <c r="BA47" s="2"/>
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="2"/>
+      <c r="BD47" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP47" s="3" t="s">
+      <c r="BE47" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>44354.710225416668</v>
       </c>
@@ -7050,14 +7830,29 @@
       <c r="AN48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AO48" s="1" t="s">
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="5"/>
+      <c r="AS48" s="5"/>
+      <c r="AT48" s="5"/>
+      <c r="AU48" s="5"/>
+      <c r="AV48" s="5"/>
+      <c r="AW48" s="5"/>
+      <c r="AX48" s="5"/>
+      <c r="AY48" s="5"/>
+      <c r="AZ48" s="5"/>
+      <c r="BA48" s="5"/>
+      <c r="BB48" s="5"/>
+      <c r="BC48" s="5"/>
+      <c r="BD48" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AP48" s="3" t="s">
+      <c r="BE48" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>44357.582680381944</v>
       </c>
@@ -7175,15 +7970,30 @@
       <c r="AN49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO49" s="1" t="s">
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="5"/>
+      <c r="AS49" s="5"/>
+      <c r="AT49" s="5"/>
+      <c r="AU49" s="5"/>
+      <c r="AV49" s="5"/>
+      <c r="AW49" s="5"/>
+      <c r="AX49" s="5"/>
+      <c r="AY49" s="5"/>
+      <c r="AZ49" s="5"/>
+      <c r="BA49" s="5"/>
+      <c r="BB49" s="5"/>
+      <c r="BC49" s="5"/>
+      <c r="BD49" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AP49" s="3" t="s">
+      <c r="BE49" s="3" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AP49">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BE49">
     <sortCondition ref="C3:C49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{D44043C9-6680-493C-BB4C-A2C63C313058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43C62B17-D770-43DF-AAB4-753E94DF2BE3}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{D44043C9-6680-493C-BB4C-A2C63C313058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DD397A2-06B1-4D99-B8D4-F4BA7C566777}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="227">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>Wadebisser</t>
-  </si>
-  <si>
-    <t>O:2</t>
   </si>
   <si>
     <t>raymond.weisskopf@fhnw.ch</t>
@@ -989,8 +986,8 @@
   </sheetPr>
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BB15" sqref="BB15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="AM38" sqref="AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1122,49 +1119,49 @@
         <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>40</v>
@@ -1178,7 +1175,7 @@
     </row>
     <row r="2" spans="1:58" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1283,10 +1280,14 @@
         <v>50</v>
       </c>
       <c r="AL2" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AO2" s="7"/>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
@@ -1311,13 +1312,13 @@
         <v>44357.404179537036</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>55</v>
@@ -1443,7 +1444,7 @@
       <c r="BB3" s="5"/>
       <c r="BC3" s="5"/>
       <c r="BD3" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BE3" s="3" t="s">
         <v>56</v>
@@ -1455,13 +1456,13 @@
         <v>44358.796914710649</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>60</v>
@@ -1587,7 +1588,7 @@
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
       <c r="BD4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BE4" s="3" t="s">
         <v>90</v>
@@ -1598,13 +1599,13 @@
         <v>44353.726277939815</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>47</v>
@@ -1730,7 +1731,7 @@
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
       <c r="BD5" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE5" s="3" t="s">
         <v>56</v>
@@ -1741,13 +1742,13 @@
         <v>44353.7207208912</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>47</v>
@@ -1873,7 +1874,7 @@
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
       <c r="BD6" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE6" s="3" t="s">
         <v>56</v>
@@ -1884,13 +1885,13 @@
         <v>44351.583451909726</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>46</v>
@@ -2016,7 +2017,7 @@
       <c r="BB7" s="5"/>
       <c r="BC7" s="5"/>
       <c r="BD7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BE7" s="3" t="s">
         <v>56</v>
@@ -2027,13 +2028,13 @@
         <v>44355.651320682868</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>55</v>
@@ -2159,7 +2160,7 @@
       <c r="BB8" s="5"/>
       <c r="BC8" s="5"/>
       <c r="BD8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE8" s="3" t="s">
         <v>56</v>
@@ -2170,13 +2171,13 @@
         <v>44358.337405185186</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>46</v>
@@ -2302,7 +2303,7 @@
       <c r="BB9" s="5"/>
       <c r="BC9" s="5"/>
       <c r="BD9" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE9" s="3" t="s">
         <v>56</v>
@@ -2313,13 +2314,13 @@
         <v>44351.750726666665</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>46</v>
@@ -2445,7 +2446,7 @@
       <c r="BB10" s="5"/>
       <c r="BC10" s="5"/>
       <c r="BD10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE10" s="3" t="s">
         <v>90</v>
@@ -2456,10 +2457,10 @@
         <v>44351.650900092594</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>55</v>
@@ -2585,7 +2586,7 @@
       <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
       <c r="BD11" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BE11" s="3" t="s">
         <v>56</v>
@@ -2599,10 +2600,10 @@
         <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>53</v>
@@ -2728,7 +2729,7 @@
       <c r="BB12" s="5"/>
       <c r="BC12" s="5"/>
       <c r="BD12" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BE12" s="3" t="s">
         <v>90</v>
@@ -2739,13 +2740,13 @@
         <v>44354.645761412037</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>55</v>
@@ -2871,7 +2872,7 @@
       <c r="BB13" s="5"/>
       <c r="BC13" s="5"/>
       <c r="BD13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE13" s="3" t="s">
         <v>56</v>
@@ -3014,7 +3015,7 @@
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE14" s="3" t="s">
         <v>56</v>
@@ -3157,7 +3158,7 @@
       <c r="BB15" s="5"/>
       <c r="BC15" s="5"/>
       <c r="BD15" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE15" s="3" t="s">
         <v>90</v>
@@ -3168,13 +3169,13 @@
         <v>44358.513099976852</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>55</v>
@@ -3198,7 +3199,7 @@
         <v>51</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>62</v>
@@ -3300,7 +3301,7 @@
       <c r="BB16" s="5"/>
       <c r="BC16" s="5"/>
       <c r="BD16" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BE16" s="3" t="s">
         <v>90</v>
@@ -3443,7 +3444,7 @@
       <c r="BB17" s="5"/>
       <c r="BC17" s="5"/>
       <c r="BD17" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BE17" s="3" t="s">
         <v>56</v>
@@ -3586,7 +3587,7 @@
       <c r="BB18" s="5"/>
       <c r="BC18" s="5"/>
       <c r="BD18" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE18" s="3" t="s">
         <v>90</v>
@@ -3597,13 +3598,13 @@
         <v>44358.45704332176</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>55</v>
@@ -3729,10 +3730,10 @@
       <c r="BB19" s="5"/>
       <c r="BC19" s="5"/>
       <c r="BD19" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE19" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
@@ -3869,7 +3870,7 @@
       <c r="BB20" s="5"/>
       <c r="BC20" s="5"/>
       <c r="BD20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BE20" s="3" t="s">
         <v>90</v>
@@ -3880,13 +3881,13 @@
         <v>44355.617516967592</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>54</v>
@@ -4012,7 +4013,7 @@
       <c r="BB21" s="5"/>
       <c r="BC21" s="5"/>
       <c r="BD21" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE21" s="3" t="s">
         <v>56</v>
@@ -4023,10 +4024,10 @@
         <v>44354.614342407411</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>55</v>
@@ -4152,7 +4153,7 @@
       <c r="BB22" s="5"/>
       <c r="BC22" s="5"/>
       <c r="BD22" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE22" s="3" t="s">
         <v>56</v>
@@ -4163,10 +4164,10 @@
         <v>44352.420063831014</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>55</v>
@@ -4292,7 +4293,7 @@
       <c r="BB23" s="5"/>
       <c r="BC23" s="5"/>
       <c r="BD23" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BE23" s="3" t="s">
         <v>56</v>
@@ -4435,7 +4436,7 @@
       <c r="BB24" s="5"/>
       <c r="BC24" s="5"/>
       <c r="BD24" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE24" s="3" t="s">
         <v>56</v>
@@ -4578,7 +4579,7 @@
       <c r="BB25" s="5"/>
       <c r="BC25" s="5"/>
       <c r="BD25" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE25" s="3" t="s">
         <v>90</v>
@@ -4589,13 +4590,13 @@
         <v>44355.483471168976</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>55</v>
@@ -4652,7 +4653,7 @@
         <v>61</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>65</v>
@@ -4721,10 +4722,10 @@
       <c r="BB26" s="5"/>
       <c r="BC26" s="5"/>
       <c r="BD26" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BE26" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.25">
@@ -4732,13 +4733,13 @@
         <v>44351.59185138889</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>47</v>
@@ -4864,7 +4865,7 @@
       <c r="BB27" s="5"/>
       <c r="BC27" s="5"/>
       <c r="BD27" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE27" s="3" t="s">
         <v>90</v>
@@ -5007,7 +5008,7 @@
       <c r="BB28" s="5"/>
       <c r="BC28" s="5"/>
       <c r="BD28" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE28" s="3" t="s">
         <v>56</v>
@@ -5018,13 +5019,13 @@
         <v>44357.937155127314</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>47</v>
@@ -5150,10 +5151,10 @@
       <c r="BB29" s="5"/>
       <c r="BC29" s="5"/>
       <c r="BD29" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BE29" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.25">
@@ -5161,13 +5162,13 @@
         <v>44357.463211458336</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>47</v>
@@ -5293,7 +5294,7 @@
       <c r="BB30" s="5"/>
       <c r="BC30" s="5"/>
       <c r="BD30" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE30" s="3" t="s">
         <v>56</v>
@@ -5436,7 +5437,7 @@
       <c r="BB31" s="5"/>
       <c r="BC31" s="5"/>
       <c r="BD31" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE31" s="3" t="s">
         <v>56</v>
@@ -5576,7 +5577,7 @@
       <c r="BB32" s="5"/>
       <c r="BC32" s="5"/>
       <c r="BD32" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE32" s="3" t="s">
         <v>56</v>
@@ -5587,13 +5588,13 @@
         <v>44358.786595127312</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>60</v>
@@ -5701,7 +5702,7 @@
         <v>50</v>
       </c>
       <c r="AN33" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
@@ -5719,7 +5720,7 @@
       <c r="BB33" s="5"/>
       <c r="BC33" s="5"/>
       <c r="BD33" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BE33" s="3" t="s">
         <v>90</v>
@@ -5730,13 +5731,13 @@
         <v>44352.407088078704</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>53</v>
@@ -5862,10 +5863,10 @@
       <c r="BB34" s="5"/>
       <c r="BC34" s="5"/>
       <c r="BD34" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE34" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.25">
@@ -5873,10 +5874,10 @@
         <v>44351.537212974537</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>46</v>
@@ -6002,10 +6003,10 @@
       <c r="BB35" s="5"/>
       <c r="BC35" s="5"/>
       <c r="BD35" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE35" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.25">
@@ -6013,10 +6014,10 @@
         <v>44357.517853460653</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>46</v>
@@ -6082,7 +6083,7 @@
         <v>62</v>
       </c>
       <c r="Z36" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>62</v>
@@ -6142,7 +6143,7 @@
       <c r="BB36" s="5"/>
       <c r="BC36" s="5"/>
       <c r="BD36" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE36" s="3" t="s">
         <v>56</v>
@@ -6153,13 +6154,13 @@
         <v>44357.755932395834</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>47</v>
@@ -6263,8 +6264,8 @@
       <c r="AL37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AM37" s="3" t="s">
-        <v>112</v>
+      <c r="AM37" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="AN37" s="3" t="s">
         <v>48</v>
@@ -6285,7 +6286,7 @@
       <c r="BB37" s="5"/>
       <c r="BC37" s="5"/>
       <c r="BD37" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE37" s="3" t="s">
         <v>56</v>
@@ -6428,10 +6429,10 @@
       <c r="BB38" s="5"/>
       <c r="BC38" s="5"/>
       <c r="BD38" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BE38" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:57" x14ac:dyDescent="0.25">
@@ -6571,7 +6572,7 @@
       <c r="BB39" s="5"/>
       <c r="BC39" s="5"/>
       <c r="BD39" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE39" s="3" t="s">
         <v>56</v>
@@ -6582,13 +6583,13 @@
         <v>44358.541077800925</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>47</v>
@@ -6714,7 +6715,7 @@
       <c r="BB40" s="5"/>
       <c r="BC40" s="5"/>
       <c r="BD40" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE40" s="3" t="s">
         <v>90</v>
@@ -6725,10 +6726,10 @@
         <v>44356.820878449071</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>46</v>
@@ -6854,7 +6855,7 @@
       <c r="BB41" s="5"/>
       <c r="BC41" s="5"/>
       <c r="BD41" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BE41" s="3" t="s">
         <v>56</v>
@@ -6865,10 +6866,10 @@
         <v>44357.936677835649</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>50</v>
@@ -6994,7 +6995,7 @@
       <c r="BB42" s="5"/>
       <c r="BC42" s="5"/>
       <c r="BD42" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE42" s="3" t="s">
         <v>90</v>
@@ -7134,7 +7135,7 @@
       <c r="BB43" s="5"/>
       <c r="BC43" s="5"/>
       <c r="BD43" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE43" s="3" t="s">
         <v>56</v>
@@ -7277,7 +7278,7 @@
       <c r="BB44" s="5"/>
       <c r="BC44" s="5"/>
       <c r="BD44" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE44" s="3" t="s">
         <v>90</v>
@@ -7420,7 +7421,7 @@
       <c r="BB45" s="2"/>
       <c r="BC45" s="2"/>
       <c r="BD45" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE45" s="3" t="s">
         <v>56</v>
@@ -7431,13 +7432,13 @@
         <v>44355.693081180551</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>66</v>
@@ -7509,7 +7510,7 @@
         <v>48</v>
       </c>
       <c r="AB46" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC46" s="3" t="s">
         <v>66</v>
@@ -7563,10 +7564,10 @@
       <c r="BB46" s="5"/>
       <c r="BC46" s="5"/>
       <c r="BD46" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BE46" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.25">
@@ -7703,7 +7704,7 @@
       <c r="BB47" s="2"/>
       <c r="BC47" s="2"/>
       <c r="BD47" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE47" s="3" t="s">
         <v>56</v>
@@ -7714,13 +7715,13 @@
         <v>44354.710225416668</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>50</v>
@@ -7741,7 +7742,7 @@
         <v>66</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>78</v>
@@ -7777,10 +7778,10 @@
         <v>46</v>
       </c>
       <c r="W48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="X48" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>78</v>
@@ -7789,7 +7790,7 @@
         <v>53</v>
       </c>
       <c r="AA48" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>54</v>
@@ -7846,7 +7847,7 @@
       <c r="BB48" s="5"/>
       <c r="BC48" s="5"/>
       <c r="BD48" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BE48" s="3" t="s">
         <v>56</v>
@@ -7857,10 +7858,10 @@
         <v>44357.582680381944</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>46</v>
@@ -7986,7 +7987,7 @@
       <c r="BB49" s="5"/>
       <c r="BC49" s="5"/>
       <c r="BD49" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BE49" s="3" t="s">
         <v>56</v>

--- a/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{D44043C9-6680-493C-BB4C-A2C63C313058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DD397A2-06B1-4D99-B8D4-F4BA7C566777}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{D44043C9-6680-493C-BB4C-A2C63C313058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E648C0A1-CFAB-4500-A0C3-7799D5963B4B}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="227">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -658,30 +658,6 @@
     <t>&lt;strike&gt;:pl: Polen&lt;/strike&gt;</t>
   </si>
   <si>
-    <t>AF1</t>
-  </si>
-  <si>
-    <t>AF2</t>
-  </si>
-  <si>
-    <t>AF3</t>
-  </si>
-  <si>
-    <t>AF4</t>
-  </si>
-  <si>
-    <t>AF5</t>
-  </si>
-  <si>
-    <t>AF6</t>
-  </si>
-  <si>
-    <t>AF7</t>
-  </si>
-  <si>
-    <t>AF8</t>
-  </si>
-  <si>
     <t>VF1</t>
   </si>
   <si>
@@ -701,6 +677,30 @@
   </si>
   <si>
     <t>Finale</t>
+  </si>
+  <si>
+    <t>Wales-Dänemark</t>
+  </si>
+  <si>
+    <t>Italien-Österreich</t>
+  </si>
+  <si>
+    <t>Holland-Tschechien</t>
+  </si>
+  <si>
+    <t>Belgien-Portugal</t>
+  </si>
+  <si>
+    <t>Kroatien-Spanien</t>
+  </si>
+  <si>
+    <t>Frankreich-Schweiz</t>
+  </si>
+  <si>
+    <t>England-Deutschland</t>
+  </si>
+  <si>
+    <t>Schweden-Ukraine</t>
   </si>
 </sst>
 </file>
@@ -710,7 +710,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -724,6 +724,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -740,7 +746,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -748,11 +754,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -766,6 +787,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -986,8 +1012,8 @@
   </sheetPr>
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="AM38" sqref="AM38"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -997,7 +1023,7 @@
     <col min="5" max="64" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,50 +1144,50 @@
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>40</v>
@@ -1173,7 +1199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:58" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>200</v>
       </c>
@@ -1288,7 +1314,9 @@
       <c r="AN2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AO2" s="7"/>
+      <c r="AO2" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
@@ -1307,7 +1335,7 @@
       <c r="BE2" s="8"/>
       <c r="BF2" s="9"/>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44357.404179537036</v>
       </c>
@@ -1428,14 +1456,30 @@
       <c r="AN3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
+      <c r="AO3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AW3" s="5"/>
       <c r="AX3" s="5"/>
       <c r="AY3" s="5"/>
@@ -1451,7 +1495,7 @@
       </c>
       <c r="BF3" s="5"/>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44358.796914710649</v>
       </c>
@@ -1572,14 +1616,30 @@
       <c r="AN4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
+      <c r="AO4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV4" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="AW4" s="5"/>
       <c r="AX4" s="5"/>
       <c r="AY4" s="5"/>
@@ -1594,7 +1654,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44353.726277939815</v>
       </c>
@@ -1715,14 +1775,30 @@
       <c r="AN5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
+      <c r="AO5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AW5" s="5"/>
       <c r="AX5" s="5"/>
       <c r="AY5" s="5"/>
@@ -1737,7 +1813,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44353.7207208912</v>
       </c>
@@ -1858,14 +1934,30 @@
       <c r="AN6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
+      <c r="AO6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV6" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AW6" s="5"/>
       <c r="AX6" s="5"/>
       <c r="AY6" s="5"/>
@@ -1880,7 +1972,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44351.583451909726</v>
       </c>
@@ -2001,14 +2093,30 @@
       <c r="AN7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
+      <c r="AO7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV7" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AW7" s="5"/>
       <c r="AX7" s="5"/>
       <c r="AY7" s="5"/>
@@ -2023,7 +2131,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44355.651320682868</v>
       </c>
@@ -2144,14 +2252,30 @@
       <c r="AN8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
+      <c r="AO8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="AW8" s="5"/>
       <c r="AX8" s="5"/>
       <c r="AY8" s="5"/>
@@ -2166,7 +2290,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44358.337405185186</v>
       </c>
@@ -2287,14 +2411,30 @@
       <c r="AN9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="5"/>
+      <c r="AO9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV9" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="AW9" s="5"/>
       <c r="AX9" s="5"/>
       <c r="AY9" s="5"/>
@@ -2309,7 +2449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44351.750726666665</v>
       </c>
@@ -2430,14 +2570,30 @@
       <c r="AN10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="5"/>
+      <c r="AO10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV10" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AW10" s="5"/>
       <c r="AX10" s="5"/>
       <c r="AY10" s="5"/>
@@ -2452,7 +2608,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44351.650900092594</v>
       </c>
@@ -2570,14 +2726,30 @@
       <c r="AN11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
+      <c r="AO11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV11" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AW11" s="5"/>
       <c r="AX11" s="5"/>
       <c r="AY11" s="5"/>
@@ -2592,7 +2764,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44357.763658819444</v>
       </c>
@@ -2713,14 +2885,30 @@
       <c r="AN12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
+      <c r="AO12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV12" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
       <c r="AY12" s="5"/>
@@ -2735,7 +2923,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44354.645761412037</v>
       </c>
@@ -2856,14 +3044,30 @@
       <c r="AN13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="5"/>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="5"/>
-      <c r="AV13" s="5"/>
+      <c r="AO13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV13" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="AW13" s="5"/>
       <c r="AX13" s="5"/>
       <c r="AY13" s="5"/>
@@ -2878,7 +3082,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>44351.521401122685</v>
       </c>
@@ -2999,14 +3203,30 @@
       <c r="AN14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="5"/>
+      <c r="AO14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV14" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
       <c r="AY14" s="5"/>
@@ -3021,7 +3241,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44351.428450497682</v>
       </c>
@@ -3142,14 +3362,30 @@
       <c r="AN15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="5"/>
-      <c r="AT15" s="5"/>
-      <c r="AU15" s="5"/>
-      <c r="AV15" s="5"/>
+      <c r="AO15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV15" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AW15" s="5"/>
       <c r="AX15" s="5"/>
       <c r="AY15" s="5"/>
@@ -3164,7 +3400,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>44358.513099976852</v>
       </c>
@@ -3285,14 +3521,30 @@
       <c r="AN16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="5"/>
-      <c r="AS16" s="5"/>
-      <c r="AT16" s="5"/>
-      <c r="AU16" s="5"/>
-      <c r="AV16" s="5"/>
+      <c r="AO16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV16" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AW16" s="5"/>
       <c r="AX16" s="5"/>
       <c r="AY16" s="5"/>
@@ -3307,7 +3559,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44349.570228993056</v>
       </c>
@@ -3428,14 +3680,30 @@
       <c r="AN17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="5"/>
-      <c r="AT17" s="5"/>
-      <c r="AU17" s="5"/>
-      <c r="AV17" s="5"/>
+      <c r="AO17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV17" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AW17" s="5"/>
       <c r="AX17" s="5"/>
       <c r="AY17" s="5"/>
@@ -3450,7 +3718,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44346.828506678241</v>
       </c>
@@ -3571,14 +3839,30 @@
       <c r="AN18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="5"/>
-      <c r="AS18" s="5"/>
-      <c r="AT18" s="5"/>
-      <c r="AU18" s="5"/>
-      <c r="AV18" s="5"/>
+      <c r="AO18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV18" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="AW18" s="5"/>
       <c r="AX18" s="5"/>
       <c r="AY18" s="5"/>
@@ -3593,7 +3877,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>44358.45704332176</v>
       </c>
@@ -3714,14 +3998,30 @@
       <c r="AN19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="5"/>
-      <c r="AT19" s="5"/>
-      <c r="AU19" s="5"/>
-      <c r="AV19" s="5"/>
+      <c r="AO19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV19" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="AW19" s="5"/>
       <c r="AX19" s="5"/>
       <c r="AY19" s="5"/>
@@ -3736,7 +4036,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44347.610221863426</v>
       </c>
@@ -3854,14 +4154,30 @@
       <c r="AN20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
-      <c r="AR20" s="5"/>
-      <c r="AS20" s="5"/>
-      <c r="AT20" s="5"/>
-      <c r="AU20" s="5"/>
-      <c r="AV20" s="5"/>
+      <c r="AO20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV20" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="AW20" s="5"/>
       <c r="AX20" s="5"/>
       <c r="AY20" s="5"/>
@@ -3876,7 +4192,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>44355.617516967592</v>
       </c>
@@ -3997,14 +4313,30 @@
       <c r="AN21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5"/>
-      <c r="AS21" s="5"/>
-      <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
-      <c r="AV21" s="5"/>
+      <c r="AO21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV21" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="AW21" s="5"/>
       <c r="AX21" s="5"/>
       <c r="AY21" s="5"/>
@@ -4019,7 +4351,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>44354.614342407411</v>
       </c>
@@ -4137,14 +4469,30 @@
       <c r="AN22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="5"/>
-      <c r="AS22" s="5"/>
-      <c r="AT22" s="5"/>
-      <c r="AU22" s="5"/>
-      <c r="AV22" s="5"/>
+      <c r="AO22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV22" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="AW22" s="5"/>
       <c r="AX22" s="5"/>
       <c r="AY22" s="5"/>
@@ -4159,7 +4507,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>44352.420063831014</v>
       </c>
@@ -4277,14 +4625,30 @@
       <c r="AN23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="5"/>
-      <c r="AS23" s="5"/>
-      <c r="AT23" s="5"/>
-      <c r="AU23" s="5"/>
-      <c r="AV23" s="5"/>
+      <c r="AO23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV23" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="AW23" s="5"/>
       <c r="AX23" s="5"/>
       <c r="AY23" s="5"/>
@@ -4299,7 +4663,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>44343.651783159723</v>
       </c>
@@ -4420,14 +4784,30 @@
       <c r="AN24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="5"/>
-      <c r="AU24" s="5"/>
-      <c r="AV24" s="5"/>
+      <c r="AO24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV24" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="AW24" s="5"/>
       <c r="AX24" s="5"/>
       <c r="AY24" s="5"/>
@@ -4442,7 +4822,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>44347.660611446758</v>
       </c>
@@ -4563,14 +4943,30 @@
       <c r="AN25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="5"/>
-      <c r="AT25" s="5"/>
-      <c r="AU25" s="5"/>
-      <c r="AV25" s="5"/>
+      <c r="AO25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV25" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AW25" s="5"/>
       <c r="AX25" s="5"/>
       <c r="AY25" s="5"/>
@@ -4585,7 +4981,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>44355.483471168976</v>
       </c>
@@ -4706,14 +5102,30 @@
       <c r="AN26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
-      <c r="AQ26" s="5"/>
-      <c r="AR26" s="5"/>
-      <c r="AS26" s="5"/>
-      <c r="AT26" s="5"/>
-      <c r="AU26" s="5"/>
-      <c r="AV26" s="5"/>
+      <c r="AO26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV26" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AW26" s="5"/>
       <c r="AX26" s="5"/>
       <c r="AY26" s="5"/>
@@ -4728,7 +5140,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>44351.59185138889</v>
       </c>
@@ -4849,14 +5261,30 @@
       <c r="AN27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="5"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="5"/>
-      <c r="AT27" s="5"/>
-      <c r="AU27" s="5"/>
-      <c r="AV27" s="5"/>
+      <c r="AO27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV27" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AW27" s="5"/>
       <c r="AX27" s="5"/>
       <c r="AY27" s="5"/>
@@ -4871,7 +5299,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>44342.911392962968</v>
       </c>
@@ -4992,14 +5420,30 @@
       <c r="AN28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
+      <c r="AO28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV28" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AW28" s="5"/>
       <c r="AX28" s="5"/>
       <c r="AY28" s="5"/>
@@ -5014,7 +5458,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>44357.937155127314</v>
       </c>
@@ -5135,14 +5579,30 @@
       <c r="AN29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="5"/>
-      <c r="AV29" s="5"/>
+      <c r="AO29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV29" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="AW29" s="5"/>
       <c r="AX29" s="5"/>
       <c r="AY29" s="5"/>
@@ -5157,7 +5617,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>44357.463211458336</v>
       </c>
@@ -5278,14 +5738,30 @@
       <c r="AN30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="5"/>
-      <c r="AR30" s="5"/>
-      <c r="AS30" s="5"/>
-      <c r="AT30" s="5"/>
-      <c r="AU30" s="5"/>
-      <c r="AV30" s="5"/>
+      <c r="AO30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV30" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AW30" s="5"/>
       <c r="AX30" s="5"/>
       <c r="AY30" s="5"/>
@@ -5300,7 +5776,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>44344.580743287035</v>
       </c>
@@ -5421,14 +5897,30 @@
       <c r="AN31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
-      <c r="AR31" s="5"/>
-      <c r="AS31" s="5"/>
-      <c r="AT31" s="5"/>
-      <c r="AU31" s="5"/>
-      <c r="AV31" s="5"/>
+      <c r="AO31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV31" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="AW31" s="5"/>
       <c r="AX31" s="5"/>
       <c r="AY31" s="5"/>
@@ -5443,7 +5935,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>44340.455648518517</v>
       </c>
@@ -5561,14 +6053,30 @@
       <c r="AN32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO32" s="5"/>
-      <c r="AP32" s="5"/>
-      <c r="AQ32" s="5"/>
-      <c r="AR32" s="5"/>
-      <c r="AS32" s="5"/>
-      <c r="AT32" s="5"/>
-      <c r="AU32" s="5"/>
-      <c r="AV32" s="5"/>
+      <c r="AO32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV32" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AW32" s="5"/>
       <c r="AX32" s="5"/>
       <c r="AY32" s="5"/>
@@ -5583,7 +6091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>44358.786595127312</v>
       </c>
@@ -5704,14 +6212,30 @@
       <c r="AN33" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
-      <c r="AV33" s="5"/>
+      <c r="AO33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV33" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AW33" s="5"/>
       <c r="AX33" s="5"/>
       <c r="AY33" s="5"/>
@@ -5726,7 +6250,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>44352.407088078704</v>
       </c>
@@ -5847,14 +6371,30 @@
       <c r="AN34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="5"/>
-      <c r="AT34" s="5"/>
-      <c r="AU34" s="5"/>
-      <c r="AV34" s="5"/>
+      <c r="AO34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV34" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="AW34" s="5"/>
       <c r="AX34" s="5"/>
       <c r="AY34" s="5"/>
@@ -5869,7 +6409,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>44351.537212974537</v>
       </c>
@@ -5987,14 +6527,30 @@
       <c r="AN35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AO35" s="5"/>
-      <c r="AP35" s="5"/>
-      <c r="AQ35" s="5"/>
-      <c r="AR35" s="5"/>
-      <c r="AS35" s="5"/>
-      <c r="AT35" s="5"/>
-      <c r="AU35" s="5"/>
-      <c r="AV35" s="5"/>
+      <c r="AO35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ35" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV35" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AW35" s="5"/>
       <c r="AX35" s="5"/>
       <c r="AY35" s="5"/>
@@ -6009,7 +6565,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>44357.517853460653</v>
       </c>
@@ -6127,14 +6683,30 @@
       <c r="AN36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AO36" s="5"/>
-      <c r="AP36" s="5"/>
-      <c r="AQ36" s="5"/>
-      <c r="AR36" s="5"/>
-      <c r="AS36" s="5"/>
-      <c r="AT36" s="5"/>
-      <c r="AU36" s="5"/>
-      <c r="AV36" s="5"/>
+      <c r="AO36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV36" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AW36" s="5"/>
       <c r="AX36" s="5"/>
       <c r="AY36" s="5"/>
@@ -6149,7 +6721,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>44357.755932395834</v>
       </c>
@@ -6270,14 +6842,30 @@
       <c r="AN37" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AO37" s="5"/>
-      <c r="AP37" s="5"/>
-      <c r="AQ37" s="5"/>
-      <c r="AR37" s="5"/>
-      <c r="AS37" s="5"/>
-      <c r="AT37" s="5"/>
-      <c r="AU37" s="5"/>
-      <c r="AV37" s="5"/>
+      <c r="AO37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV37" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="AW37" s="5"/>
       <c r="AX37" s="5"/>
       <c r="AY37" s="5"/>
@@ -6292,7 +6880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>44343.428704918981</v>
       </c>
@@ -6413,14 +7001,30 @@
       <c r="AN38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO38" s="5"/>
-      <c r="AP38" s="5"/>
-      <c r="AQ38" s="5"/>
-      <c r="AR38" s="5"/>
-      <c r="AS38" s="5"/>
-      <c r="AT38" s="5"/>
-      <c r="AU38" s="5"/>
-      <c r="AV38" s="5"/>
+      <c r="AO38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV38" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AW38" s="5"/>
       <c r="AX38" s="5"/>
       <c r="AY38" s="5"/>
@@ -6435,7 +7039,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>44349.879789999999</v>
       </c>
@@ -6556,14 +7160,30 @@
       <c r="AN39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
-      <c r="AQ39" s="5"/>
-      <c r="AR39" s="5"/>
-      <c r="AS39" s="5"/>
-      <c r="AT39" s="5"/>
-      <c r="AU39" s="5"/>
-      <c r="AV39" s="5"/>
+      <c r="AO39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV39" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AW39" s="5"/>
       <c r="AX39" s="5"/>
       <c r="AY39" s="5"/>
@@ -6578,7 +7198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>44358.541077800925</v>
       </c>
@@ -6699,14 +7319,30 @@
       <c r="AN40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
-      <c r="AQ40" s="5"/>
-      <c r="AR40" s="5"/>
-      <c r="AS40" s="5"/>
-      <c r="AT40" s="5"/>
-      <c r="AU40" s="5"/>
-      <c r="AV40" s="5"/>
+      <c r="AO40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV40" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AW40" s="5"/>
       <c r="AX40" s="5"/>
       <c r="AY40" s="5"/>
@@ -6721,7 +7357,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>44356.820878449071</v>
       </c>
@@ -6839,14 +7475,30 @@
       <c r="AN41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
-      <c r="AS41" s="5"/>
-      <c r="AT41" s="5"/>
-      <c r="AU41" s="5"/>
-      <c r="AV41" s="5"/>
+      <c r="AO41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV41" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AW41" s="5"/>
       <c r="AX41" s="5"/>
       <c r="AY41" s="5"/>
@@ -6861,7 +7513,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>44357.936677835649</v>
       </c>
@@ -6979,14 +7631,30 @@
       <c r="AN42" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO42" s="5"/>
-      <c r="AP42" s="5"/>
-      <c r="AQ42" s="5"/>
-      <c r="AR42" s="5"/>
-      <c r="AS42" s="5"/>
-      <c r="AT42" s="5"/>
-      <c r="AU42" s="5"/>
-      <c r="AV42" s="5"/>
+      <c r="AO42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV42" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AW42" s="5"/>
       <c r="AX42" s="5"/>
       <c r="AY42" s="5"/>
@@ -7001,7 +7669,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>44345.692452442134</v>
       </c>
@@ -7119,14 +7787,30 @@
       <c r="AN43" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
-      <c r="AQ43" s="5"/>
-      <c r="AR43" s="5"/>
-      <c r="AS43" s="5"/>
-      <c r="AT43" s="5"/>
-      <c r="AU43" s="5"/>
-      <c r="AV43" s="5"/>
+      <c r="AO43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV43" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="AW43" s="5"/>
       <c r="AX43" s="5"/>
       <c r="AY43" s="5"/>
@@ -7141,7 +7825,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>44348.492419259259</v>
       </c>
@@ -7262,14 +7946,30 @@
       <c r="AN44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
-      <c r="AQ44" s="5"/>
-      <c r="AR44" s="5"/>
-      <c r="AS44" s="5"/>
-      <c r="AT44" s="5"/>
-      <c r="AU44" s="5"/>
-      <c r="AV44" s="5"/>
+      <c r="AO44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV44" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="AW44" s="5"/>
       <c r="AX44" s="5"/>
       <c r="AY44" s="5"/>
@@ -7284,7 +7984,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44315.684453900467</v>
       </c>
@@ -7405,14 +8105,30 @@
       <c r="AN45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AO45" s="2"/>
-      <c r="AP45" s="2"/>
-      <c r="AQ45" s="2"/>
-      <c r="AR45" s="2"/>
-      <c r="AS45" s="2"/>
-      <c r="AT45" s="2"/>
-      <c r="AU45" s="2"/>
-      <c r="AV45" s="2"/>
+      <c r="AO45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV45" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AW45" s="2"/>
       <c r="AX45" s="2"/>
       <c r="AY45" s="2"/>
@@ -7427,7 +8143,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44355.693081180551</v>
       </c>
@@ -7548,14 +8264,30 @@
       <c r="AN46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AO46" s="5"/>
-      <c r="AP46" s="5"/>
-      <c r="AQ46" s="5"/>
-      <c r="AR46" s="5"/>
-      <c r="AS46" s="5"/>
-      <c r="AT46" s="5"/>
-      <c r="AU46" s="5"/>
-      <c r="AV46" s="5"/>
+      <c r="AO46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV46" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AW46" s="5"/>
       <c r="AX46" s="5"/>
       <c r="AY46" s="5"/>
@@ -7570,7 +8302,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>44338.962579375002</v>
       </c>
@@ -7688,14 +8420,30 @@
       <c r="AN47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AO47" s="2"/>
-      <c r="AP47" s="2"/>
-      <c r="AQ47" s="2"/>
-      <c r="AR47" s="2"/>
-      <c r="AS47" s="2"/>
-      <c r="AT47" s="2"/>
-      <c r="AU47" s="2"/>
-      <c r="AV47" s="2"/>
+      <c r="AO47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV47" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="AW47" s="2"/>
       <c r="AX47" s="2"/>
       <c r="AY47" s="2"/>
@@ -7710,7 +8458,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>44354.710225416668</v>
       </c>
@@ -7831,14 +8579,30 @@
       <c r="AN48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AO48" s="5"/>
-      <c r="AP48" s="5"/>
-      <c r="AQ48" s="5"/>
-      <c r="AR48" s="5"/>
-      <c r="AS48" s="5"/>
-      <c r="AT48" s="5"/>
-      <c r="AU48" s="5"/>
-      <c r="AV48" s="5"/>
+      <c r="AO48" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP48" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS48" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT48" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU48" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV48" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="AW48" s="5"/>
       <c r="AX48" s="5"/>
       <c r="AY48" s="5"/>
@@ -7853,7 +8617,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>44357.582680381944</v>
       </c>
@@ -7971,14 +8735,30 @@
       <c r="AN49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO49" s="5"/>
-      <c r="AP49" s="5"/>
-      <c r="AQ49" s="5"/>
-      <c r="AR49" s="5"/>
-      <c r="AS49" s="5"/>
-      <c r="AT49" s="5"/>
-      <c r="AU49" s="5"/>
-      <c r="AV49" s="5"/>
+      <c r="AO49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV49" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="AW49" s="5"/>
       <c r="AX49" s="5"/>
       <c r="AY49" s="5"/>
@@ -7998,5 +8778,6 @@
     <sortCondition ref="C3:C49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{D44043C9-6680-493C-BB4C-A2C63C313058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E648C0A1-CFAB-4500-A0C3-7799D5963B4B}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{D44043C9-6680-493C-BB4C-A2C63C313058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{985FA43C-A9A8-46C4-8DAB-DE0504027FDD}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="227">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -1012,8 +1012,8 @@
   </sheetPr>
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1317,9 @@
       <c r="AO2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="7"/>
+      <c r="AP2" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
       <c r="AS2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{D44043C9-6680-493C-BB4C-A2C63C313058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{985FA43C-A9A8-46C4-8DAB-DE0504027FDD}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{D44043C9-6680-493C-BB4C-A2C63C313058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BEDD297-8BEF-46EC-957E-F7ED8B082BF7}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="227">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -1012,8 +1012,8 @@
   </sheetPr>
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AO6" sqref="AO6"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AQ3" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1320,7 +1320,9 @@
       <c r="AP2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AQ2" s="7"/>
+      <c r="AQ2" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="AR2" s="7"/>
       <c r="AS2" s="7"/>
       <c r="AT2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{D44043C9-6680-493C-BB4C-A2C63C313058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BEDD297-8BEF-46EC-957E-F7ED8B082BF7}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{D44043C9-6680-493C-BB4C-A2C63C313058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98F60052-51BC-456A-81FC-A4A19E7B2BDD}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="227">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:BF49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AQ3" sqref="AQ3"/>
+      <selection activeCell="AR3" sqref="AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1323,7 +1323,9 @@
       <c r="AQ2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AR2" s="7"/>
+      <c r="AR2" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="AS2" s="7"/>
       <c r="AT2" s="7"/>
       <c r="AU2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{D44043C9-6680-493C-BB4C-A2C63C313058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1A54A5F-1446-4770-ADBB-B37DBF5D0EFC}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{D44043C9-6680-493C-BB4C-A2C63C313058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3B29630-9119-4E82-9670-6E57BAF6B30D}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -700,7 +700,7 @@
     <t>Belgien-&lt;strike&gt;:pt: Portugal&lt;/strike&gt;</t>
   </si>
   <si>
-    <t>:pt: &lt;strike&gt;:pt: Portugal&lt;/strike&gt;</t>
+    <t>&lt;strike&gt;:pt: Portugal&lt;/strike&gt;</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:BF49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BD4" sqref="BD4"/>
+      <selection activeCell="BD41" sqref="BD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1023,7 @@
     <col min="5" max="64" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Fussballdaten\em-toto-2021\Tipps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{D44043C9-6680-493C-BB4C-A2C63C313058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3B29630-9119-4E82-9670-6E57BAF6B30D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formularantworten 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="227">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -1012,8 +1012,8 @@
   </sheetPr>
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BD41" sqref="BD41"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AS3" sqref="AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1326,9 @@
       <c r="AR2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AS2" s="7"/>
+      <c r="AS2" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="AT2" s="7"/>
       <c r="AU2" s="7"/>
       <c r="AV2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Fussballdaten\em-toto-2021\Tipps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{395534C5-5925-4EAB-8482-45496A4CC0CD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="227">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -181,9 +181,6 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>Achtelfinale</t>
-  </si>
-  <si>
     <t>till.wolanin@gmail.com</t>
   </si>
   <si>
@@ -701,6 +698,9 @@
   </si>
   <si>
     <t>&lt;strike&gt;:pt: Portugal&lt;/strike&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strike&gt;Achtelfinale&lt;/strike&gt;</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1012,8 @@
   </sheetPr>
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+    <sheetView tabSelected="1" topLeftCell="AX13" workbookViewId="0">
+      <selection activeCell="BE1" sqref="BE1:BE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1127,7 @@
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>34</v>
@@ -1136,58 +1136,58 @@
         <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AO1" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AP1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AR1" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS1" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="AR1" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AT1" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AV1" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="AV1" s="13" t="s">
-        <v>221</v>
-      </c>
       <c r="AW1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>37</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="2" spans="1:58" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1222,7 +1222,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>43</v>
@@ -1237,7 +1237,7 @@
         <v>52</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>44</v>
@@ -1246,7 +1246,7 @@
         <v>45</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>46</v>
@@ -1261,7 +1261,7 @@
         <v>43</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>44</v>
@@ -1285,37 +1285,37 @@
         <v>50</v>
       </c>
       <c r="AE2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="AG2" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AH2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI2" s="11" t="s">
         <v>49</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="AL2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AN2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AO2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AP2" s="11" t="s">
         <v>46</v>
@@ -1324,12 +1324,14 @@
         <v>44</v>
       </c>
       <c r="AR2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AS2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT2" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="AU2" s="7"/>
       <c r="AV2" s="7"/>
       <c r="AW2" s="7"/>
@@ -1348,19 +1350,19 @@
         <v>44357.404179537036</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="E3" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>46</v>
@@ -1375,7 +1377,7 @@
         <v>48</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>46</v>
@@ -1393,7 +1395,7 @@
         <v>49</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>46</v>
@@ -1423,7 +1425,7 @@
         <v>45</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB3" s="5" t="s">
         <v>43</v>
@@ -1432,7 +1434,7 @@
         <v>46</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE3" s="5" t="s">
         <v>47</v>
@@ -1456,13 +1458,13 @@
         <v>44</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AM3" s="5" t="s">
         <v>47</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO3" s="15" t="s">
         <v>43</v>
@@ -1486,7 +1488,7 @@
         <v>46</v>
       </c>
       <c r="AV3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW3" s="5"/>
       <c r="AX3" s="5"/>
@@ -1496,10 +1498,10 @@
       <c r="BB3" s="5"/>
       <c r="BC3" s="5"/>
       <c r="BD3" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="BF3" s="5"/>
     </row>
@@ -1508,16 +1510,16 @@
         <v>44358.796914710649</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>44</v>
@@ -1529,7 +1531,7 @@
         <v>47</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>51</v>
@@ -1559,7 +1561,7 @@
         <v>46</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>51</v>
@@ -1571,7 +1573,7 @@
         <v>47</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>50</v>
@@ -1580,10 +1582,10 @@
         <v>46</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>44</v>
@@ -1592,7 +1594,7 @@
         <v>50</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE4" s="3" t="s">
         <v>51</v>
@@ -1631,10 +1633,10 @@
         <v>48</v>
       </c>
       <c r="AQ4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AR4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AS4" s="5" t="s">
         <v>44</v>
@@ -1656,10 +1658,10 @@
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
       <c r="BD4" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -1667,14 +1669,14 @@
         <v>44353.726277939815</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
@@ -1685,13 +1687,13 @@
         <v>47</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>46</v>
@@ -1748,7 +1750,7 @@
         <v>52</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD5" s="3" t="s">
         <v>51</v>
@@ -1778,7 +1780,7 @@
         <v>47</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN5" s="3" t="s">
         <v>51</v>
@@ -1805,7 +1807,7 @@
         <v>47</v>
       </c>
       <c r="AV5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW5" s="5"/>
       <c r="AX5" s="5"/>
@@ -1815,10 +1817,10 @@
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
       <c r="BD5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE5" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -1826,14 +1828,14 @@
         <v>44353.7207208912</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="E6" s="3" t="s">
         <v>44</v>
       </c>
@@ -1841,55 +1843,55 @@
         <v>47</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="V6" s="3" t="s">
         <v>52</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>52</v>
@@ -1928,7 +1930,7 @@
         <v>44</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AK6" s="3" t="s">
         <v>49</v>
@@ -1961,7 +1963,7 @@
         <v>48</v>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AV6" s="5" t="s">
         <v>51</v>
@@ -1974,10 +1976,10 @@
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
       <c r="BD6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -1985,14 +1987,14 @@
         <v>44351.583451909726</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="E7" s="3" t="s">
         <v>43</v>
       </c>
@@ -2000,7 +2002,7 @@
         <v>43</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>50</v>
@@ -2021,7 +2023,7 @@
         <v>47</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>47</v>
@@ -2030,7 +2032,7 @@
         <v>43</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>51</v>
@@ -2075,7 +2077,7 @@
         <v>46</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG7" s="3" t="s">
         <v>49</v>
@@ -2093,7 +2095,7 @@
         <v>52</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AM7" s="3" t="s">
         <v>47</v>
@@ -2102,7 +2104,7 @@
         <v>45</v>
       </c>
       <c r="AO7" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AP7" s="5" t="s">
         <v>48</v>
@@ -2120,7 +2122,7 @@
         <v>51</v>
       </c>
       <c r="AU7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV7" s="5" t="s">
         <v>51</v>
@@ -2133,10 +2135,10 @@
       <c r="BB7" s="5"/>
       <c r="BC7" s="5"/>
       <c r="BD7" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2144,14 +2146,14 @@
         <v>44355.651320682868</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="E8" s="3" t="s">
         <v>52</v>
       </c>
@@ -2159,7 +2161,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>43</v>
@@ -2183,10 +2185,10 @@
         <v>49</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>50</v>
@@ -2195,7 +2197,7 @@
         <v>52</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>51</v>
@@ -2207,52 +2209,52 @@
         <v>47</v>
       </c>
       <c r="W8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH8" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="AI8" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AM8" s="3" t="s">
         <v>46</v>
@@ -2267,7 +2269,7 @@
         <v>51</v>
       </c>
       <c r="AQ8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AR8" s="5" t="s">
         <v>46</v>
@@ -2276,7 +2278,7 @@
         <v>44</v>
       </c>
       <c r="AT8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AU8" s="5" t="s">
         <v>52</v>
@@ -2292,10 +2294,10 @@
       <c r="BB8" s="5"/>
       <c r="BC8" s="5"/>
       <c r="BD8" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2303,14 +2305,14 @@
         <v>44358.337405185186</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="E9" s="3" t="s">
         <v>43</v>
       </c>
@@ -2321,13 +2323,13 @@
         <v>47</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>46</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>51</v>
@@ -2432,7 +2434,7 @@
         <v>46</v>
       </c>
       <c r="AS9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT9" s="5" t="s">
         <v>51</v>
@@ -2451,10 +2453,10 @@
       <c r="BB9" s="5"/>
       <c r="BC9" s="5"/>
       <c r="BD9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE9" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2462,13 +2464,13 @@
         <v>44351.750726666665</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>43</v>
@@ -2486,7 +2488,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>51</v>
@@ -2501,7 +2503,7 @@
         <v>52</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>43</v>
@@ -2510,10 +2512,10 @@
         <v>43</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>46</v>
@@ -2600,7 +2602,7 @@
         <v>50</v>
       </c>
       <c r="AV10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW10" s="5"/>
       <c r="AX10" s="5"/>
@@ -2610,10 +2612,10 @@
       <c r="BB10" s="5"/>
       <c r="BC10" s="5"/>
       <c r="BD10" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2621,11 +2623,11 @@
         <v>44351.650900092594</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="E11" s="3" t="s">
         <v>52</v>
       </c>
@@ -2633,25 +2635,25 @@
         <v>43</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>43</v>
@@ -2660,7 +2662,7 @@
         <v>43</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>51</v>
@@ -2669,7 +2671,7 @@
         <v>51</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>46</v>
@@ -2684,7 +2686,7 @@
         <v>45</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y11" s="3" t="s">
         <v>52</v>
@@ -2696,31 +2698,31 @@
         <v>43</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD11" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF11" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH11" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK11" s="3" t="s">
         <v>43</v>
@@ -2744,7 +2746,7 @@
         <v>46</v>
       </c>
       <c r="AR11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS11" s="5" t="s">
         <v>46</v>
@@ -2766,10 +2768,10 @@
       <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
       <c r="BD11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BE11" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2777,13 +2779,13 @@
         <v>44357.763658819444</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>50</v>
@@ -2798,13 +2800,13 @@
         <v>47</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>46</v>
@@ -2813,7 +2815,7 @@
         <v>43</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>47</v>
@@ -2828,7 +2830,7 @@
         <v>43</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>45</v>
@@ -2846,7 +2848,7 @@
         <v>43</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>51</v>
@@ -2925,10 +2927,10 @@
       <c r="BB12" s="5"/>
       <c r="BC12" s="5"/>
       <c r="BD12" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2936,13 +2938,13 @@
         <v>44354.645761412037</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>52</v>
@@ -2963,7 +2965,7 @@
         <v>51</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>46</v>
@@ -2981,7 +2983,7 @@
         <v>49</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>46</v>
@@ -2999,7 +3001,7 @@
         <v>47</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>47</v>
@@ -3008,10 +3010,10 @@
         <v>46</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB13" s="3" t="s">
         <v>46</v>
@@ -3032,13 +3034,13 @@
         <v>44</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AK13" s="3" t="s">
         <v>44</v>
@@ -3059,10 +3061,10 @@
         <v>45</v>
       </c>
       <c r="AQ13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AR13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AS13" s="5" t="s">
         <v>44</v>
@@ -3071,7 +3073,7 @@
         <v>45</v>
       </c>
       <c r="AU13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AV13" s="5" t="s">
         <v>47</v>
@@ -3084,10 +3086,10 @@
       <c r="BB13" s="5"/>
       <c r="BC13" s="5"/>
       <c r="BD13" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE13" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3095,14 +3097,14 @@
         <v>44351.521401122685</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="E14" s="3" t="s">
         <v>47</v>
       </c>
@@ -3131,50 +3133,50 @@
         <v>47</v>
       </c>
       <c r="N14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="AC14" s="3" t="s">
         <v>51</v>
       </c>
@@ -3182,38 +3184,38 @@
         <v>46</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG14" s="12" t="s">
         <v>44</v>
       </c>
       <c r="AH14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AI14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO14" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="AP14" s="5" t="s">
         <v>51</v>
       </c>
@@ -3233,7 +3235,7 @@
         <v>52</v>
       </c>
       <c r="AV14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
@@ -3243,10 +3245,10 @@
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE14" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3254,14 +3256,14 @@
         <v>44351.428450497682</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="E15" s="3" t="s">
         <v>47</v>
       </c>
@@ -3278,7 +3280,7 @@
         <v>46</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>46</v>
@@ -3290,13 +3292,13 @@
         <v>52</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>47</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>51</v>
@@ -3305,13 +3307,13 @@
         <v>46</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>52</v>
@@ -3353,26 +3355,26 @@
         <v>47</v>
       </c>
       <c r="AI15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AK15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AM15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AN15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO15" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="AP15" s="5" t="s">
         <v>45</v>
       </c>
@@ -3380,19 +3382,19 @@
         <v>45</v>
       </c>
       <c r="AR15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AS15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU15" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="AV15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW15" s="5"/>
       <c r="AX15" s="5"/>
@@ -3402,10 +3404,10 @@
       <c r="BB15" s="5"/>
       <c r="BC15" s="5"/>
       <c r="BD15" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3413,14 +3415,14 @@
         <v>44358.513099976852</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="E16" s="3" t="s">
         <v>52</v>
       </c>
@@ -3428,10 +3430,10 @@
         <v>52</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>47</v>
@@ -3443,13 +3445,13 @@
         <v>48</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>46</v>
@@ -3473,7 +3475,7 @@
         <v>44</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>46</v>
@@ -3494,7 +3496,7 @@
         <v>43</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD16" s="3" t="s">
         <v>43</v>
@@ -3509,13 +3511,13 @@
         <v>43</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI16" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AJ16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK16" s="3" t="s">
         <v>44</v>
@@ -3533,13 +3535,13 @@
         <v>44</v>
       </c>
       <c r="AP16" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AQ16" s="5" t="s">
         <v>47</v>
       </c>
       <c r="AR16" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AS16" s="5" t="s">
         <v>52</v>
@@ -3548,10 +3550,10 @@
         <v>46</v>
       </c>
       <c r="AU16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW16" s="5"/>
       <c r="AX16" s="5"/>
@@ -3561,10 +3563,10 @@
       <c r="BB16" s="5"/>
       <c r="BC16" s="5"/>
       <c r="BD16" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -3572,28 +3574,28 @@
         <v>44349.570228993056</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="E17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>51</v>
@@ -3605,7 +3607,7 @@
         <v>46</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>44</v>
@@ -3614,7 +3616,7 @@
         <v>47</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>45</v>
@@ -3629,7 +3631,7 @@
         <v>46</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>45</v>
@@ -3647,7 +3649,7 @@
         <v>46</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB17" s="3" t="s">
         <v>49</v>
@@ -3656,28 +3658,28 @@
         <v>51</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE17" s="3" t="s">
         <v>51</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AH17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AI17" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="AJ17" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AL17" s="3" t="s">
         <v>45</v>
@@ -3701,7 +3703,7 @@
         <v>52</v>
       </c>
       <c r="AS17" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT17" s="5" t="s">
         <v>52</v>
@@ -3710,7 +3712,7 @@
         <v>46</v>
       </c>
       <c r="AV17" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW17" s="5"/>
       <c r="AX17" s="5"/>
@@ -3720,10 +3722,10 @@
       <c r="BB17" s="5"/>
       <c r="BC17" s="5"/>
       <c r="BD17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BE17" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="BE17" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -3731,22 +3733,22 @@
         <v>44346.828506678241</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="E18" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>51</v>
@@ -3758,7 +3760,7 @@
         <v>48</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>47</v>
@@ -3794,7 +3796,7 @@
         <v>47</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>44</v>
@@ -3803,13 +3805,13 @@
         <v>47</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>51</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC18" s="3" t="s">
         <v>51</v>
@@ -3879,10 +3881,10 @@
       <c r="BB18" s="5"/>
       <c r="BC18" s="5"/>
       <c r="BD18" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -3890,13 +3892,13 @@
         <v>44358.45704332176</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>52</v>
@@ -4038,10 +4040,10 @@
       <c r="BB19" s="5"/>
       <c r="BC19" s="5"/>
       <c r="BD19" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE19" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4049,10 +4051,10 @@
         <v>44347.610221863426</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>52</v>
@@ -4194,10 +4196,10 @@
       <c r="BB20" s="5"/>
       <c r="BC20" s="5"/>
       <c r="BD20" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4205,14 +4207,14 @@
         <v>44355.617516967592</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="E21" s="3" t="s">
         <v>51</v>
       </c>
@@ -4226,7 +4228,7 @@
         <v>51</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>51</v>
@@ -4250,13 +4252,13 @@
         <v>52</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>46</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>46</v>
@@ -4271,7 +4273,7 @@
         <v>46</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>51</v>
@@ -4280,13 +4282,13 @@
         <v>46</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD21" s="3" t="s">
         <v>51</v>
@@ -4331,7 +4333,7 @@
         <v>45</v>
       </c>
       <c r="AR21" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AS21" s="5" t="s">
         <v>52</v>
@@ -4353,10 +4355,10 @@
       <c r="BB21" s="5"/>
       <c r="BC21" s="5"/>
       <c r="BD21" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4364,11 +4366,11 @@
         <v>44354.614342407411</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="E22" s="3" t="s">
         <v>52</v>
       </c>
@@ -4388,7 +4390,7 @@
         <v>51</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>51</v>
@@ -4406,13 +4408,13 @@
         <v>43</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>46</v>
@@ -4421,10 +4423,10 @@
         <v>44</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>47</v>
@@ -4436,7 +4438,7 @@
         <v>51</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>52</v>
@@ -4445,13 +4447,13 @@
         <v>43</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE22" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG22" s="3" t="s">
         <v>52</v>
@@ -4463,13 +4465,13 @@
         <v>44</v>
       </c>
       <c r="AJ22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AK22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AL22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AM22" s="3" t="s">
         <v>47</v>
@@ -4487,7 +4489,7 @@
         <v>46</v>
       </c>
       <c r="AR22" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AS22" s="5" t="s">
         <v>46</v>
@@ -4509,10 +4511,10 @@
       <c r="BB22" s="5"/>
       <c r="BC22" s="5"/>
       <c r="BD22" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE22" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4520,10 +4522,10 @@
         <v>44352.420063831014</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>52</v>
@@ -4541,7 +4543,7 @@
         <v>51</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>50</v>
@@ -4553,10 +4555,10 @@
         <v>43</v>
       </c>
       <c r="N23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>44</v>
@@ -4571,7 +4573,7 @@
         <v>46</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>49</v>
@@ -4586,7 +4588,7 @@
         <v>52</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>50</v>
@@ -4595,7 +4597,7 @@
         <v>50</v>
       </c>
       <c r="AB23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC23" s="3" t="s">
         <v>46</v>
@@ -4622,7 +4624,7 @@
         <v>47</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL23" s="3" t="s">
         <v>47</v>
@@ -4646,13 +4648,13 @@
         <v>46</v>
       </c>
       <c r="AS23" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT23" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AU23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV23" s="5" t="s">
         <v>47</v>
@@ -4665,10 +4667,10 @@
       <c r="BB23" s="5"/>
       <c r="BC23" s="5"/>
       <c r="BD23" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE23" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4676,14 +4678,14 @@
         <v>44343.651783159723</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E24" s="3" t="s">
         <v>44</v>
       </c>
@@ -4715,11 +4717,11 @@
         <v>52</v>
       </c>
       <c r="O24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>45</v>
       </c>
@@ -4730,7 +4732,7 @@
         <v>46</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>49</v>
@@ -4751,13 +4753,13 @@
         <v>46</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB24" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AC24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD24" s="3" t="s">
         <v>47</v>
@@ -4766,7 +4768,7 @@
         <v>46</v>
       </c>
       <c r="AF24" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG24" s="3" t="s">
         <v>43</v>
@@ -4778,7 +4780,7 @@
         <v>52</v>
       </c>
       <c r="AJ24" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK24" s="3" t="s">
         <v>44</v>
@@ -4790,7 +4792,7 @@
         <v>52</v>
       </c>
       <c r="AN24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO24" s="5" t="s">
         <v>52</v>
@@ -4802,7 +4804,7 @@
         <v>48</v>
       </c>
       <c r="AR24" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS24" s="5" t="s">
         <v>52</v>
@@ -4811,7 +4813,7 @@
         <v>45</v>
       </c>
       <c r="AU24" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AV24" s="5" t="s">
         <v>46</v>
@@ -4824,10 +4826,10 @@
       <c r="BB24" s="5"/>
       <c r="BC24" s="5"/>
       <c r="BD24" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE24" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4835,16 +4837,16 @@
         <v>44347.660611446758</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>43</v>
@@ -4853,10 +4855,10 @@
         <v>48</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>51</v>
@@ -4886,7 +4888,7 @@
         <v>51</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>46</v>
@@ -4895,7 +4897,7 @@
         <v>49</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W25" s="3" t="s">
         <v>45</v>
@@ -4910,7 +4912,7 @@
         <v>48</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB25" s="3" t="s">
         <v>50</v>
@@ -4967,7 +4969,7 @@
         <v>52</v>
       </c>
       <c r="AT25" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AU25" s="5" t="s">
         <v>52</v>
@@ -4983,10 +4985,10 @@
       <c r="BB25" s="5"/>
       <c r="BC25" s="5"/>
       <c r="BD25" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE25" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4994,43 +4996,43 @@
         <v>44355.483471168976</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>51</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>48</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>52</v>
@@ -5045,70 +5047,70 @@
         <v>45</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD26" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="AE26" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AF26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AH26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AI26" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="AJ26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AK26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AL26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AN26" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AO26" s="5" t="s">
         <v>48</v>
@@ -5123,13 +5125,13 @@
         <v>52</v>
       </c>
       <c r="AS26" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT26" s="5" t="s">
         <v>52</v>
       </c>
       <c r="AU26" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AV26" s="5" t="s">
         <v>48</v>
@@ -5142,10 +5144,10 @@
       <c r="BB26" s="5"/>
       <c r="BC26" s="5"/>
       <c r="BD26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BE26" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5153,14 +5155,14 @@
         <v>44351.59185138889</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="E27" s="3" t="s">
         <v>44</v>
       </c>
@@ -5279,7 +5281,7 @@
         <v>45</v>
       </c>
       <c r="AR27" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS27" s="5" t="s">
         <v>45</v>
@@ -5288,7 +5290,7 @@
         <v>45</v>
       </c>
       <c r="AU27" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV27" s="5" t="s">
         <v>45</v>
@@ -5301,10 +5303,10 @@
       <c r="BB27" s="5"/>
       <c r="BC27" s="5"/>
       <c r="BD27" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE27" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5312,13 +5314,13 @@
         <v>44342.911392962968</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>43</v>
@@ -5372,10 +5374,10 @@
         <v>44</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X28" s="3" t="s">
         <v>43</v>
@@ -5384,7 +5386,7 @@
         <v>51</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA28" s="3" t="s">
         <v>51</v>
@@ -5399,7 +5401,7 @@
         <v>51</v>
       </c>
       <c r="AE28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF28" s="3" t="s">
         <v>47</v>
@@ -5460,10 +5462,10 @@
       <c r="BB28" s="5"/>
       <c r="BC28" s="5"/>
       <c r="BD28" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE28" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5471,13 +5473,13 @@
         <v>44357.937155127314</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>44</v>
@@ -5489,7 +5491,7 @@
         <v>46</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>51</v>
@@ -5501,7 +5503,7 @@
         <v>45</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>50</v>
@@ -5543,13 +5545,13 @@
         <v>46</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>51</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>43</v>
@@ -5558,7 +5560,7 @@
         <v>51</v>
       </c>
       <c r="AE29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF29" s="3" t="s">
         <v>48</v>
@@ -5576,7 +5578,7 @@
         <v>47</v>
       </c>
       <c r="AK29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL29" s="3" t="s">
         <v>43</v>
@@ -5594,10 +5596,10 @@
         <v>51</v>
       </c>
       <c r="AQ29" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AR29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AS29" s="5" t="s">
         <v>44</v>
@@ -5619,10 +5621,10 @@
       <c r="BB29" s="5"/>
       <c r="BC29" s="5"/>
       <c r="BD29" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE29" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5630,13 +5632,13 @@
         <v>44357.463211458336</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>44</v>
@@ -5651,7 +5653,7 @@
         <v>46</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>45</v>
@@ -5660,13 +5662,13 @@
         <v>46</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>52</v>
@@ -5699,13 +5701,13 @@
         <v>50</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z30" s="5" t="s">
         <v>51</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB30" s="3" t="s">
         <v>44</v>
@@ -5732,16 +5734,16 @@
         <v>44</v>
       </c>
       <c r="AJ30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK30" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AL30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AN30" s="3" t="s">
         <v>48</v>
@@ -5753,7 +5755,7 @@
         <v>45</v>
       </c>
       <c r="AQ30" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR30" s="5" t="s">
         <v>52</v>
@@ -5778,10 +5780,10 @@
       <c r="BB30" s="5"/>
       <c r="BC30" s="5"/>
       <c r="BD30" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE30" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5789,119 +5791,119 @@
         <v>44344.580743287035</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="AF31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK31" s="3" t="s">
+      <c r="AL31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AL31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM31" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="AN31" s="3" t="s">
         <v>46</v>
       </c>
@@ -5912,7 +5914,7 @@
         <v>45</v>
       </c>
       <c r="AQ31" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AR31" s="5" t="s">
         <v>51</v>
@@ -5921,13 +5923,13 @@
         <v>48</v>
       </c>
       <c r="AT31" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AU31" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AV31" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AW31" s="5"/>
       <c r="AX31" s="5"/>
@@ -5937,10 +5939,10 @@
       <c r="BB31" s="5"/>
       <c r="BC31" s="5"/>
       <c r="BD31" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE31" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5948,116 +5950,116 @@
         <v>44340.455648518517</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="E32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S32" s="3" t="s">
+      <c r="T32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM32" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="AN32" s="3" t="s">
         <v>51</v>
       </c>
@@ -6083,7 +6085,7 @@
         <v>44</v>
       </c>
       <c r="AV32" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW32" s="5"/>
       <c r="AX32" s="5"/>
@@ -6093,10 +6095,10 @@
       <c r="BB32" s="5"/>
       <c r="BC32" s="5"/>
       <c r="BD32" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE32" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6104,16 +6106,16 @@
         <v>44358.786595127312</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>47</v>
@@ -6140,7 +6142,7 @@
         <v>43</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>50</v>
@@ -6149,7 +6151,7 @@
         <v>44</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>47</v>
@@ -6179,7 +6181,7 @@
         <v>50</v>
       </c>
       <c r="AA33" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB33" s="3" t="s">
         <v>47</v>
@@ -6188,13 +6190,13 @@
         <v>51</v>
       </c>
       <c r="AD33" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE33" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF33" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG33" s="3" t="s">
         <v>52</v>
@@ -6206,19 +6208,19 @@
         <v>47</v>
       </c>
       <c r="AJ33" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AK33" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AL33" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM33" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AN33" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AO33" s="5" t="s">
         <v>47</v>
@@ -6236,13 +6238,13 @@
         <v>44</v>
       </c>
       <c r="AT33" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AU33" s="5" t="s">
         <v>50</v>
       </c>
       <c r="AV33" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW33" s="5"/>
       <c r="AX33" s="5"/>
@@ -6252,10 +6254,10 @@
       <c r="BB33" s="5"/>
       <c r="BC33" s="5"/>
       <c r="BD33" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BE33" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6263,13 +6265,13 @@
         <v>44352.407088078704</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>50</v>
@@ -6290,7 +6292,7 @@
         <v>48</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>48</v>
@@ -6299,7 +6301,7 @@
         <v>52</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>47</v>
@@ -6317,7 +6319,7 @@
         <v>50</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U34" s="3" t="s">
         <v>47</v>
@@ -6338,7 +6340,7 @@
         <v>47</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB34" s="3" t="s">
         <v>44</v>
@@ -6359,19 +6361,19 @@
         <v>44</v>
       </c>
       <c r="AH34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AJ34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL34" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="AK34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL34" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="AM34" s="3" t="s">
         <v>44</v>
@@ -6411,10 +6413,10 @@
       <c r="BB34" s="5"/>
       <c r="BC34" s="5"/>
       <c r="BD34" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE34" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6422,11 +6424,11 @@
         <v>44351.537212974537</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="E35" s="3" t="s">
         <v>43</v>
       </c>
@@ -6434,7 +6436,7 @@
         <v>52</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>47</v>
@@ -6443,13 +6445,13 @@
         <v>47</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>43</v>
@@ -6458,7 +6460,7 @@
         <v>43</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>43</v>
@@ -6467,19 +6469,19 @@
         <v>47</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>47</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>43</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>47</v>
@@ -6488,13 +6490,13 @@
         <v>47</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB35" s="3" t="s">
         <v>43</v>
@@ -6503,37 +6505,37 @@
         <v>47</v>
       </c>
       <c r="AD35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG35" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AH35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI35" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AJ35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK35" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AL35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AM35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO35" s="5" t="s">
         <v>43</v>
@@ -6542,7 +6544,7 @@
         <v>45</v>
       </c>
       <c r="AQ35" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AR35" s="5" t="s">
         <v>46</v>
@@ -6551,13 +6553,13 @@
         <v>43</v>
       </c>
       <c r="AT35" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AU35" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AV35" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW35" s="5"/>
       <c r="AX35" s="5"/>
@@ -6567,10 +6569,10 @@
       <c r="BB35" s="5"/>
       <c r="BC35" s="5"/>
       <c r="BD35" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE35" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6578,11 +6580,11 @@
         <v>44357.517853460653</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E36" s="3" t="s">
         <v>43</v>
       </c>
@@ -6590,16 +6592,16 @@
         <v>47</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>50</v>
@@ -6626,7 +6628,7 @@
         <v>46</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>48</v>
@@ -6638,19 +6640,19 @@
         <v>47</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X36" s="3" t="s">
         <v>43</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z36" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AA36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB36" s="3" t="s">
         <v>46</v>
@@ -6659,10 +6661,10 @@
         <v>51</v>
       </c>
       <c r="AD36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF36" s="3" t="s">
         <v>51</v>
@@ -6671,13 +6673,13 @@
         <v>43</v>
       </c>
       <c r="AH36" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI36" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AJ36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK36" s="3" t="s">
         <v>49</v>
@@ -6689,7 +6691,7 @@
         <v>43</v>
       </c>
       <c r="AN36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO36" s="5" t="s">
         <v>50</v>
@@ -6701,7 +6703,7 @@
         <v>47</v>
       </c>
       <c r="AR36" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS36" s="5" t="s">
         <v>43</v>
@@ -6713,7 +6715,7 @@
         <v>43</v>
       </c>
       <c r="AV36" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW36" s="5"/>
       <c r="AX36" s="5"/>
@@ -6723,10 +6725,10 @@
       <c r="BB36" s="5"/>
       <c r="BC36" s="5"/>
       <c r="BD36" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE36" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6734,13 +6736,13 @@
         <v>44357.755932395834</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>44</v>
@@ -6755,10 +6757,10 @@
         <v>46</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>48</v>
@@ -6785,7 +6787,7 @@
         <v>47</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T37" s="3" t="s">
         <v>51</v>
@@ -6824,7 +6826,7 @@
         <v>43</v>
       </c>
       <c r="AF37" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG37" s="3" t="s">
         <v>44</v>
@@ -6851,7 +6853,7 @@
         <v>45</v>
       </c>
       <c r="AO37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP37" s="5" t="s">
         <v>51</v>
@@ -6869,7 +6871,7 @@
         <v>45</v>
       </c>
       <c r="AU37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV37" s="5" t="s">
         <v>50</v>
@@ -6882,10 +6884,10 @@
       <c r="BB37" s="5"/>
       <c r="BC37" s="5"/>
       <c r="BD37" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE37" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6893,14 +6895,14 @@
         <v>44343.428704918981</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="E38" s="3" t="s">
         <v>52</v>
       </c>
@@ -6920,7 +6922,7 @@
         <v>51</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>46</v>
@@ -6953,7 +6955,7 @@
         <v>44</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W38" s="3" t="s">
         <v>47</v>
@@ -6962,13 +6964,13 @@
         <v>50</v>
       </c>
       <c r="Y38" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z38" s="5" t="s">
         <v>51</v>
       </c>
       <c r="AA38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB38" s="3" t="s">
         <v>43</v>
@@ -6977,13 +6979,13 @@
         <v>50</v>
       </c>
       <c r="AD38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG38" s="3" t="s">
         <v>44</v>
@@ -7031,7 +7033,7 @@
         <v>43</v>
       </c>
       <c r="AV38" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW38" s="5"/>
       <c r="AX38" s="5"/>
@@ -7041,10 +7043,10 @@
       <c r="BB38" s="5"/>
       <c r="BC38" s="5"/>
       <c r="BD38" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE38" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7052,14 +7054,14 @@
         <v>44349.879789999999</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="E39" s="3" t="s">
         <v>52</v>
       </c>
@@ -7073,13 +7075,13 @@
         <v>47</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>45</v>
@@ -7097,13 +7099,13 @@
         <v>44</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>51</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T39" s="3" t="s">
         <v>46</v>
@@ -7115,7 +7117,7 @@
         <v>47</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X39" s="3" t="s">
         <v>43</v>
@@ -7127,13 +7129,13 @@
         <v>45</v>
       </c>
       <c r="AA39" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB39" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AC39" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD39" s="3" t="s">
         <v>46</v>
@@ -7142,7 +7144,7 @@
         <v>52</v>
       </c>
       <c r="AF39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG39" s="3" t="s">
         <v>52</v>
@@ -7163,7 +7165,7 @@
         <v>46</v>
       </c>
       <c r="AM39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AN39" s="3" t="s">
         <v>51</v>
@@ -7178,10 +7180,10 @@
         <v>51</v>
       </c>
       <c r="AR39" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT39" s="5" t="s">
         <v>45</v>
@@ -7190,7 +7192,7 @@
         <v>47</v>
       </c>
       <c r="AV39" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW39" s="5"/>
       <c r="AX39" s="5"/>
@@ -7200,10 +7202,10 @@
       <c r="BB39" s="5"/>
       <c r="BC39" s="5"/>
       <c r="BD39" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE39" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7211,31 +7213,31 @@
         <v>44358.541077800925</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="E40" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>51</v>
@@ -7259,13 +7261,13 @@
         <v>51</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U40" s="3" t="s">
         <v>44</v>
@@ -7274,13 +7276,13 @@
         <v>50</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X40" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z40" s="3" t="s">
         <v>51</v>
@@ -7292,13 +7294,13 @@
         <v>44</v>
       </c>
       <c r="AC40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF40" s="3" t="s">
         <v>51</v>
@@ -7313,13 +7315,13 @@
         <v>44</v>
       </c>
       <c r="AJ40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK40" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AL40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AM40" s="3" t="s">
         <v>43</v>
@@ -7346,7 +7348,7 @@
         <v>51</v>
       </c>
       <c r="AU40" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AV40" s="5" t="s">
         <v>51</v>
@@ -7359,10 +7361,10 @@
       <c r="BB40" s="5"/>
       <c r="BC40" s="5"/>
       <c r="BD40" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE40" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7370,11 +7372,11 @@
         <v>44356.820878449071</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="E41" s="3" t="s">
         <v>43</v>
       </c>
@@ -7388,7 +7390,7 @@
         <v>51</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>48</v>
@@ -7409,7 +7411,7 @@
         <v>44</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>46</v>
@@ -7418,10 +7420,10 @@
         <v>48</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>49</v>
@@ -7442,16 +7444,16 @@
         <v>48</v>
       </c>
       <c r="AA41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB41" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AC41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE41" s="3" t="s">
         <v>46</v>
@@ -7466,7 +7468,7 @@
         <v>47</v>
       </c>
       <c r="AI41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AJ41" s="3" t="s">
         <v>50</v>
@@ -7493,7 +7495,7 @@
         <v>46</v>
       </c>
       <c r="AR41" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS41" s="5" t="s">
         <v>43</v>
@@ -7515,10 +7517,10 @@
       <c r="BB41" s="5"/>
       <c r="BC41" s="5"/>
       <c r="BD41" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BE41" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="BE41" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7526,11 +7528,11 @@
         <v>44357.936677835649</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="E42" s="3" t="s">
         <v>47</v>
       </c>
@@ -7538,7 +7540,7 @@
         <v>44</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>46</v>
@@ -7559,7 +7561,7 @@
         <v>44</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>47</v>
@@ -7568,7 +7570,7 @@
         <v>49</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>51</v>
@@ -7580,7 +7582,7 @@
         <v>46</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>50</v>
@@ -7601,16 +7603,16 @@
         <v>51</v>
       </c>
       <c r="AB42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC42" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD42" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AE42" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF42" s="3" t="s">
         <v>47</v>
@@ -7619,19 +7621,19 @@
         <v>52</v>
       </c>
       <c r="AH42" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AJ42" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK42" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AL42" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AM42" s="3" t="s">
         <v>52</v>
@@ -7649,7 +7651,7 @@
         <v>51</v>
       </c>
       <c r="AR42" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS42" s="5" t="s">
         <v>52</v>
@@ -7661,7 +7663,7 @@
         <v>46</v>
       </c>
       <c r="AV42" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW42" s="5"/>
       <c r="AX42" s="5"/>
@@ -7671,10 +7673,10 @@
       <c r="BB42" s="5"/>
       <c r="BC42" s="5"/>
       <c r="BD42" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE42" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7682,16 +7684,16 @@
         <v>44345.692452442134</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="E43" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>46</v>
@@ -7715,16 +7717,16 @@
         <v>44</v>
       </c>
       <c r="N43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="Q43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>51</v>
@@ -7760,13 +7762,13 @@
         <v>49</v>
       </c>
       <c r="AC43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD43" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AE43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF43" s="3" t="s">
         <v>46</v>
@@ -7775,7 +7777,7 @@
         <v>44</v>
       </c>
       <c r="AH43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI43" s="3" t="s">
         <v>44</v>
@@ -7808,7 +7810,7 @@
         <v>46</v>
       </c>
       <c r="AS43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT43" s="5" t="s">
         <v>46</v>
@@ -7827,10 +7829,10 @@
       <c r="BB43" s="5"/>
       <c r="BC43" s="5"/>
       <c r="BD43" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE43" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7838,13 +7840,13 @@
         <v>44348.492419259259</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>43</v>
@@ -7862,7 +7864,7 @@
         <v>47</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>51</v>
@@ -7919,13 +7921,13 @@
         <v>43</v>
       </c>
       <c r="AC44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD44" s="3" t="s">
         <v>51</v>
       </c>
       <c r="AE44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF44" s="3" t="s">
         <v>51</v>
@@ -7937,7 +7939,7 @@
         <v>50</v>
       </c>
       <c r="AI44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ44" s="3" t="s">
         <v>46</v>
@@ -7946,34 +7948,34 @@
         <v>49</v>
       </c>
       <c r="AL44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS44" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AM44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO44" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP44" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ44" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR44" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS44" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="AT44" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AU44" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AV44" s="5" t="s">
         <v>47</v>
@@ -7986,10 +7988,10 @@
       <c r="BB44" s="5"/>
       <c r="BC44" s="5"/>
       <c r="BD44" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE44" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8145,10 +8147,10 @@
       <c r="BB45" s="2"/>
       <c r="BC45" s="2"/>
       <c r="BD45" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE45" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8156,25 +8158,25 @@
         <v>44355.693081180551</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="E46" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>44</v>
@@ -8186,61 +8188,61 @@
         <v>47</v>
       </c>
       <c r="L46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N46" s="3" t="s">
+      <c r="X46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z46" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AB46" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC46" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD46" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE46" s="3" t="s">
         <v>45</v>
@@ -8249,28 +8251,28 @@
         <v>48</v>
       </c>
       <c r="AG46" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH46" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI46" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AJ46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL46" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AM46" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AN46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO46" s="5" t="s">
         <v>47</v>
@@ -8304,10 +8306,10 @@
       <c r="BB46" s="5"/>
       <c r="BC46" s="5"/>
       <c r="BD46" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BE46" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8315,22 +8317,22 @@
         <v>44338.962579375002</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="E47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>47</v>
@@ -8348,16 +8350,16 @@
         <v>44</v>
       </c>
       <c r="N47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="Q47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>51</v>
@@ -8393,13 +8395,13 @@
         <v>49</v>
       </c>
       <c r="AC47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD47" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AE47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF47" s="3" t="s">
         <v>46</v>
@@ -8414,7 +8416,7 @@
         <v>44</v>
       </c>
       <c r="AJ47" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AK47" s="3" t="s">
         <v>49</v>
@@ -8423,13 +8425,13 @@
         <v>52</v>
       </c>
       <c r="AM47" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN47" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AO47" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AP47" s="2" t="s">
         <v>45</v>
@@ -8438,7 +8440,7 @@
         <v>46</v>
       </c>
       <c r="AR47" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS47" s="2" t="s">
         <v>43</v>
@@ -8450,7 +8452,7 @@
         <v>46</v>
       </c>
       <c r="AV47" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW47" s="2"/>
       <c r="AX47" s="2"/>
@@ -8460,10 +8462,10 @@
       <c r="BB47" s="2"/>
       <c r="BC47" s="2"/>
       <c r="BD47" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE47" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8471,40 +8473,40 @@
         <v>44354.710225416668</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="L48" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>46</v>
@@ -8513,16 +8515,16 @@
         <v>46</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>47</v>
@@ -8534,25 +8536,25 @@
         <v>43</v>
       </c>
       <c r="W48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="X48" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="Y48" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z48" s="12" t="s">
         <v>50</v>
       </c>
       <c r="AA48" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>51</v>
       </c>
       <c r="AC48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD48" s="3" t="s">
         <v>43</v>
@@ -8570,7 +8572,7 @@
         <v>45</v>
       </c>
       <c r="AI48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ48" s="3" t="s">
         <v>43</v>
@@ -8585,13 +8587,13 @@
         <v>45</v>
       </c>
       <c r="AN48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO48" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AP48" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AQ48" s="6" t="s">
         <v>46</v>
@@ -8603,10 +8605,10 @@
         <v>49</v>
       </c>
       <c r="AT48" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AU48" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AV48" s="6" t="s">
         <v>45</v>
@@ -8619,10 +8621,10 @@
       <c r="BB48" s="5"/>
       <c r="BC48" s="5"/>
       <c r="BD48" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BE48" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8630,10 +8632,10 @@
         <v>44357.582680381944</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>43</v>
@@ -8669,7 +8671,7 @@
         <v>47</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>50</v>
@@ -8678,7 +8680,7 @@
         <v>51</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>51</v>
@@ -8696,13 +8698,13 @@
         <v>43</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AA49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>47</v>
@@ -8775,10 +8777,10 @@
       <c r="BB49" s="5"/>
       <c r="BC49" s="5"/>
       <c r="BD49" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE49" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{395534C5-5925-4EAB-8482-45496A4CC0CD}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{792B5517-2D28-4872-A77C-F13872707D2C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,9 +613,6 @@
     <t>Resultate</t>
   </si>
   <si>
-    <t>:fr: Frankreich</t>
-  </si>
-  <si>
     <t>:de: Deutschland</t>
   </si>
   <si>
@@ -701,6 +698,9 @@
   </si>
   <si>
     <t>&lt;strike&gt;Achtelfinale&lt;/strike&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strike&gt;:fr: Frankreich&lt;/strike&gt;</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1012,8 @@
   </sheetPr>
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX13" workbookViewId="0">
-      <selection activeCell="BE1" sqref="BE1:BE1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1:BD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1127,7 @@
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>34</v>
@@ -1136,58 +1136,58 @@
         <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AO1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP1" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AR1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS1" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="AR1" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AT1" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AV1" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="AV1" s="13" t="s">
-        <v>220</v>
-      </c>
       <c r="AW1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>37</v>
@@ -1498,10 +1498,10 @@
       <c r="BB3" s="5"/>
       <c r="BC3" s="5"/>
       <c r="BD3" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BF3" s="5"/>
     </row>
@@ -1658,7 +1658,7 @@
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
       <c r="BD4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BE4" s="3" t="s">
         <v>86</v>
@@ -1817,10 +1817,10 @@
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
       <c r="BD5" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE5" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -1976,10 +1976,10 @@
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
       <c r="BD6" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2135,10 +2135,10 @@
       <c r="BB7" s="5"/>
       <c r="BC7" s="5"/>
       <c r="BD7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2294,10 +2294,10 @@
       <c r="BB8" s="5"/>
       <c r="BC8" s="5"/>
       <c r="BD8" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2453,10 +2453,10 @@
       <c r="BB9" s="5"/>
       <c r="BC9" s="5"/>
       <c r="BD9" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE9" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
       <c r="BB10" s="5"/>
       <c r="BC10" s="5"/>
       <c r="BD10" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE10" s="3" t="s">
         <v>86</v>
@@ -2768,10 +2768,10 @@
       <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
       <c r="BD11" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE11" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2927,7 +2927,7 @@
       <c r="BB12" s="5"/>
       <c r="BC12" s="5"/>
       <c r="BD12" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BE12" s="3" t="s">
         <v>86</v>
@@ -3086,10 +3086,10 @@
       <c r="BB13" s="5"/>
       <c r="BC13" s="5"/>
       <c r="BD13" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE13" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3245,10 +3245,10 @@
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE14" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3404,7 +3404,7 @@
       <c r="BB15" s="5"/>
       <c r="BC15" s="5"/>
       <c r="BD15" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE15" s="3" t="s">
         <v>86</v>
@@ -3563,7 +3563,7 @@
       <c r="BB16" s="5"/>
       <c r="BC16" s="5"/>
       <c r="BD16" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BE16" s="3" t="s">
         <v>86</v>
@@ -3722,10 +3722,10 @@
       <c r="BB17" s="5"/>
       <c r="BC17" s="5"/>
       <c r="BD17" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BE17" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="BE17" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -3881,7 +3881,7 @@
       <c r="BB18" s="5"/>
       <c r="BC18" s="5"/>
       <c r="BD18" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE18" s="3" t="s">
         <v>86</v>
@@ -4040,10 +4040,10 @@
       <c r="BB19" s="5"/>
       <c r="BC19" s="5"/>
       <c r="BD19" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE19" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4196,7 +4196,7 @@
       <c r="BB20" s="5"/>
       <c r="BC20" s="5"/>
       <c r="BD20" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE20" s="3" t="s">
         <v>86</v>
@@ -4355,10 +4355,10 @@
       <c r="BB21" s="5"/>
       <c r="BC21" s="5"/>
       <c r="BD21" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4511,10 +4511,10 @@
       <c r="BB22" s="5"/>
       <c r="BC22" s="5"/>
       <c r="BD22" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE22" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4667,10 +4667,10 @@
       <c r="BB23" s="5"/>
       <c r="BC23" s="5"/>
       <c r="BD23" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BE23" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4826,10 +4826,10 @@
       <c r="BB24" s="5"/>
       <c r="BC24" s="5"/>
       <c r="BD24" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE24" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4985,7 +4985,7 @@
       <c r="BB25" s="5"/>
       <c r="BC25" s="5"/>
       <c r="BD25" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE25" s="3" t="s">
         <v>86</v>
@@ -5144,7 +5144,7 @@
       <c r="BB26" s="5"/>
       <c r="BC26" s="5"/>
       <c r="BD26" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE26" s="3" t="s">
         <v>110</v>
@@ -5303,7 +5303,7 @@
       <c r="BB27" s="5"/>
       <c r="BC27" s="5"/>
       <c r="BD27" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE27" s="3" t="s">
         <v>86</v>
@@ -5462,10 +5462,10 @@
       <c r="BB28" s="5"/>
       <c r="BC28" s="5"/>
       <c r="BD28" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE28" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5621,10 +5621,10 @@
       <c r="BB29" s="5"/>
       <c r="BC29" s="5"/>
       <c r="BD29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE29" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5780,10 +5780,10 @@
       <c r="BB30" s="5"/>
       <c r="BC30" s="5"/>
       <c r="BD30" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE30" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5939,10 +5939,10 @@
       <c r="BB31" s="5"/>
       <c r="BC31" s="5"/>
       <c r="BD31" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE31" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6095,10 +6095,10 @@
       <c r="BB32" s="5"/>
       <c r="BC32" s="5"/>
       <c r="BD32" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE32" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6254,7 +6254,7 @@
       <c r="BB33" s="5"/>
       <c r="BC33" s="5"/>
       <c r="BD33" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BE33" s="3" t="s">
         <v>86</v>
@@ -6413,10 +6413,10 @@
       <c r="BB34" s="5"/>
       <c r="BC34" s="5"/>
       <c r="BD34" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE34" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6569,7 +6569,7 @@
       <c r="BB35" s="5"/>
       <c r="BC35" s="5"/>
       <c r="BD35" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE35" s="3" t="s">
         <v>110</v>
@@ -6725,10 +6725,10 @@
       <c r="BB36" s="5"/>
       <c r="BC36" s="5"/>
       <c r="BD36" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE36" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6884,10 +6884,10 @@
       <c r="BB37" s="5"/>
       <c r="BC37" s="5"/>
       <c r="BD37" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE37" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7043,10 +7043,10 @@
       <c r="BB38" s="5"/>
       <c r="BC38" s="5"/>
       <c r="BD38" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE38" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7202,10 +7202,10 @@
       <c r="BB39" s="5"/>
       <c r="BC39" s="5"/>
       <c r="BD39" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE39" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7361,7 +7361,7 @@
       <c r="BB40" s="5"/>
       <c r="BC40" s="5"/>
       <c r="BD40" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE40" s="3" t="s">
         <v>86</v>
@@ -7517,10 +7517,10 @@
       <c r="BB41" s="5"/>
       <c r="BC41" s="5"/>
       <c r="BD41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BE41" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="BE41" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7673,7 +7673,7 @@
       <c r="BB42" s="5"/>
       <c r="BC42" s="5"/>
       <c r="BD42" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE42" s="3" t="s">
         <v>86</v>
@@ -7829,10 +7829,10 @@
       <c r="BB43" s="5"/>
       <c r="BC43" s="5"/>
       <c r="BD43" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE43" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7988,7 +7988,7 @@
       <c r="BB44" s="5"/>
       <c r="BC44" s="5"/>
       <c r="BD44" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE44" s="3" t="s">
         <v>86</v>
@@ -8147,10 +8147,10 @@
       <c r="BB45" s="2"/>
       <c r="BC45" s="2"/>
       <c r="BD45" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE45" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8306,10 +8306,10 @@
       <c r="BB46" s="5"/>
       <c r="BC46" s="5"/>
       <c r="BD46" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BE46" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8462,10 +8462,10 @@
       <c r="BB47" s="2"/>
       <c r="BC47" s="2"/>
       <c r="BD47" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE47" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8621,10 +8621,10 @@
       <c r="BB48" s="5"/>
       <c r="BC48" s="5"/>
       <c r="BD48" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BE48" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8777,10 +8777,10 @@
       <c r="BB49" s="5"/>
       <c r="BC49" s="5"/>
       <c r="BD49" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE49" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten)_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{792B5517-2D28-4872-A77C-F13872707D2C}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81F9475C-F825-47A8-870C-BFE573719CA4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="227">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -613,9 +613,6 @@
     <t>Resultate</t>
   </si>
   <si>
-    <t>:de: Deutschland</t>
-  </si>
-  <si>
     <t>:be: Belgien</t>
   </si>
   <si>
@@ -701,6 +698,9 @@
   </si>
   <si>
     <t>&lt;strike&gt;:fr: Frankreich&lt;/strike&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strike&gt;:de: Deutschland&lt;/strike&gt;</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:BF49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BD1" sqref="BD1:BD1048576"/>
+      <selection activeCell="BD7" sqref="BD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1127,7 @@
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>34</v>
@@ -1136,58 +1136,58 @@
         <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AO1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="AP1" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AR1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="AR1" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AT1" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AV1" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="AV1" s="13" t="s">
-        <v>219</v>
-      </c>
       <c r="AW1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>37</v>
@@ -1332,7 +1332,9 @@
       <c r="AT2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AU2" s="7"/>
+      <c r="AU2" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="AV2" s="7"/>
       <c r="AW2" s="7"/>
       <c r="AX2" s="7"/>
@@ -1498,10 +1500,10 @@
       <c r="BB3" s="5"/>
       <c r="BC3" s="5"/>
       <c r="BD3" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BF3" s="5"/>
     </row>
@@ -1658,7 +1660,7 @@
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
       <c r="BD4" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BE4" s="3" t="s">
         <v>86</v>
@@ -1817,10 +1819,10 @@
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
       <c r="BD5" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE5" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -1976,10 +1978,10 @@
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
       <c r="BD6" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2135,10 +2137,10 @@
       <c r="BB7" s="5"/>
       <c r="BC7" s="5"/>
       <c r="BD7" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2294,10 +2296,10 @@
       <c r="BB8" s="5"/>
       <c r="BC8" s="5"/>
       <c r="BD8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2453,10 +2455,10 @@
       <c r="BB9" s="5"/>
       <c r="BC9" s="5"/>
       <c r="BD9" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE9" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2612,7 +2614,7 @@
       <c r="BB10" s="5"/>
       <c r="BC10" s="5"/>
       <c r="BD10" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE10" s="3" t="s">
         <v>86</v>
@@ -2768,10 +2770,10 @@
       <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
       <c r="BD11" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE11" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2927,7 +2929,7 @@
       <c r="BB12" s="5"/>
       <c r="BC12" s="5"/>
       <c r="BD12" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE12" s="3" t="s">
         <v>86</v>
@@ -3086,10 +3088,10 @@
       <c r="BB13" s="5"/>
       <c r="BC13" s="5"/>
       <c r="BD13" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE13" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3245,10 +3247,10 @@
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE14" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3404,7 +3406,7 @@
       <c r="BB15" s="5"/>
       <c r="BC15" s="5"/>
       <c r="BD15" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE15" s="3" t="s">
         <v>86</v>
@@ -3563,7 +3565,7 @@
       <c r="BB16" s="5"/>
       <c r="BC16" s="5"/>
       <c r="BD16" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE16" s="3" t="s">
         <v>86</v>
@@ -3722,10 +3724,10 @@
       <c r="BB17" s="5"/>
       <c r="BC17" s="5"/>
       <c r="BD17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BE17" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="BE17" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -3881,7 +3883,7 @@
       <c r="BB18" s="5"/>
       <c r="BC18" s="5"/>
       <c r="BD18" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE18" s="3" t="s">
         <v>86</v>
@@ -4040,10 +4042,10 @@
       <c r="BB19" s="5"/>
       <c r="BC19" s="5"/>
       <c r="BD19" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE19" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4196,7 +4198,7 @@
       <c r="BB20" s="5"/>
       <c r="BC20" s="5"/>
       <c r="BD20" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE20" s="3" t="s">
         <v>86</v>
@@ -4355,10 +4357,10 @@
       <c r="BB21" s="5"/>
       <c r="BC21" s="5"/>
       <c r="BD21" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4511,10 +4513,10 @@
       <c r="BB22" s="5"/>
       <c r="BC22" s="5"/>
       <c r="BD22" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE22" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4667,10 +4669,10 @@
       <c r="BB23" s="5"/>
       <c r="BC23" s="5"/>
       <c r="BD23" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE23" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4826,10 +4828,10 @@
       <c r="BB24" s="5"/>
       <c r="BC24" s="5"/>
       <c r="BD24" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE24" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4985,7 +4987,7 @@
       <c r="BB25" s="5"/>
       <c r="BC25" s="5"/>
       <c r="BD25" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE25" s="3" t="s">
         <v>86</v>
@@ -5144,7 +5146,7 @@
       <c r="BB26" s="5"/>
       <c r="BC26" s="5"/>
       <c r="BD26" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BE26" s="3" t="s">
         <v>110</v>
@@ -5303,7 +5305,7 @@
       <c r="BB27" s="5"/>
       <c r="BC27" s="5"/>
       <c r="BD27" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE27" s="3" t="s">
         <v>86</v>
@@ -5462,10 +5464,10 @@
       <c r="BB28" s="5"/>
       <c r="BC28" s="5"/>
       <c r="BD28" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE28" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5621,10 +5623,10 @@
       <c r="BB29" s="5"/>
       <c r="BC29" s="5"/>
       <c r="BD29" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE29" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5780,10 +5782,10 @@
       <c r="BB30" s="5"/>
       <c r="BC30" s="5"/>
       <c r="BD30" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE30" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5939,10 +5941,10 @@
       <c r="BB31" s="5"/>
       <c r="BC31" s="5"/>
       <c r="BD31" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE31" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6095,10 +6097,10 @@
       <c r="BB32" s="5"/>
       <c r="BC32" s="5"/>
       <c r="BD32" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE32" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6254,7 +6256,7 @@
       <c r="BB33" s="5"/>
       <c r="BC33" s="5"/>
       <c r="BD33" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BE33" s="3" t="s">
         <v>86</v>
@@ -6413,10 +6415,10 @@
       <c r="BB34" s="5"/>
       <c r="BC34" s="5"/>
       <c r="BD34" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE34" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6569,7 +6571,7 @@
       <c r="BB35" s="5"/>
       <c r="BC35" s="5"/>
       <c r="BD35" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE35" s="3" t="s">
         <v>110</v>
@@ -6725,10 +6727,10 @@
       <c r="BB36" s="5"/>
       <c r="BC36" s="5"/>
       <c r="BD36" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE36" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6884,10 +6886,10 @@
       <c r="BB37" s="5"/>
       <c r="BC37" s="5"/>
       <c r="BD37" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE37" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7043,10 +7045,10 @@
       <c r="BB38" s="5"/>
       <c r="BC38" s="5"/>
       <c r="BD38" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE38" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7202,10 +7204,10 @@
       <c r="BB39" s="5"/>
       <c r="BC39" s="5"/>
       <c r="BD39" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE39" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7361,7 +7363,7 @@
       <c r="BB40" s="5"/>
       <c r="BC40" s="5"/>
       <c r="BD40" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE40" s="3" t="s">
         <v>86</v>
@@ -7517,10 +7519,10 @@
       <c r="BB41" s="5"/>
       <c r="BC41" s="5"/>
       <c r="BD41" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BE41" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="BE41" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7673,7 +7675,7 @@
       <c r="BB42" s="5"/>
       <c r="BC42" s="5"/>
       <c r="BD42" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE42" s="3" t="s">
         <v>86</v>
@@ -7829,10 +7831,10 @@
       <c r="BB43" s="5"/>
       <c r="BC43" s="5"/>
       <c r="BD43" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE43" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7988,7 +7990,7 @@
       <c r="BB44" s="5"/>
       <c r="BC44" s="5"/>
       <c r="BD44" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE44" s="3" t="s">
         <v>86</v>
@@ -8147,10 +8149,10 @@
       <c r="BB45" s="2"/>
       <c r="BC45" s="2"/>
       <c r="BD45" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE45" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8306,10 +8308,10 @@
       <c r="BB46" s="5"/>
       <c r="BC46" s="5"/>
       <c r="BD46" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE46" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8462,10 +8464,10 @@
       <c r="BB47" s="2"/>
       <c r="BC47" s="2"/>
       <c r="BD47" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE47" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8621,10 +8623,10 @@
       <c r="BB48" s="5"/>
       <c r="BC48" s="5"/>
       <c r="BD48" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE48" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8777,10 +8779,10 @@
       <c r="BB49" s="5"/>
       <c r="BC49" s="5"/>
       <c r="BD49" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="BE49" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
